--- a/data/open_data_list/0099.xlsx
+++ b/data/open_data_list/0099.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\File01\情報政策課\1課共通\他部署報告・通達関係\R5（デジタル戦略課）\②提出(課内決裁予定)\【20240315デジタル戦略課】オープンデータサイトのデータ更新及び新規データの追加について（依頼）\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ivpf201v.takamatsu.local\Profile\h11780\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA86502A-EF9A-45D3-9582-F04A892704ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="200" windowWidth="19180" windowHeight="9880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20" yWindow="200" windowWidth="19180" windowHeight="9880"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1109" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1106" uniqueCount="328">
   <si>
     <t>#property</t>
   </si>
@@ -70,6 +69,9 @@
     <t>くらし</t>
   </si>
   <si>
+    <t>xlsx,text,RDF,データモデル定義</t>
+  </si>
+  <si>
     <t>https://opendata.smartcity-takamatsu.jp/ckan/dataset/environmental_facilities</t>
   </si>
   <si>
@@ -202,30 +204,45 @@
     <t>20</t>
   </si>
   <si>
+    <t>高松市　その他子育て支援施設</t>
+  </si>
+  <si>
     <t>https://opendata.smartcity-takamatsu.jp/ckan/dataset/other_child_care_support_facility</t>
   </si>
   <si>
     <t>21</t>
   </si>
   <si>
+    <t>高松市　病児・病後児保育施設</t>
+  </si>
+  <si>
     <t>https://opendata.smartcity-takamatsu.jp/ckan/dataset/infant_childcare_facility</t>
   </si>
   <si>
     <t>22</t>
   </si>
   <si>
+    <t>高松市　地域子育て支援拠点</t>
+  </si>
+  <si>
     <t>https://opendata.smartcity-takamatsu.jp/ckan/dataset/regional_child_rearing_support_base</t>
   </si>
   <si>
     <t>23</t>
   </si>
   <si>
+    <t>高松市　大学</t>
+  </si>
+  <si>
     <t>https://opendata.smartcity-takamatsu.jp/ckan/dataset/university</t>
   </si>
   <si>
     <t>24</t>
   </si>
   <si>
+    <t>高松市　レンタサイクルポート</t>
+  </si>
+  <si>
     <t>交通</t>
   </si>
   <si>
@@ -235,54 +252,81 @@
     <t>25</t>
   </si>
   <si>
+    <t>高松市　市立駐車場</t>
+  </si>
+  <si>
     <t>https://opendata.smartcity-takamatsu.jp/ckan/dataset/municipal_parking</t>
   </si>
   <si>
     <t>26</t>
   </si>
   <si>
+    <t>高松市　市立駐輪場</t>
+  </si>
+  <si>
     <t>https://opendata.smartcity-takamatsu.jp/ckan/dataset/city_bicycle_parking</t>
   </si>
   <si>
     <t>27</t>
   </si>
   <si>
+    <t>高松市　自転車保管所</t>
+  </si>
+  <si>
     <t>https://opendata.smartcity-takamatsu.jp/ckan/dataset/bicycle_storage</t>
   </si>
   <si>
     <t>28</t>
   </si>
   <si>
+    <t>高松市　水道施設</t>
+  </si>
+  <si>
     <t>行政機関</t>
   </si>
   <si>
     <t>29</t>
   </si>
   <si>
+    <t>高松市　下水道施設</t>
+  </si>
+  <si>
     <t>https://opendata.smartcity-takamatsu.jp/ckan/dataset/sewer_facility</t>
   </si>
   <si>
     <t>30</t>
   </si>
   <si>
+    <t>高松市　出張所</t>
+  </si>
+  <si>
     <t>https://opendata.smartcity-takamatsu.jp/ckan/dataset/branch_office</t>
   </si>
   <si>
     <t>31</t>
   </si>
   <si>
+    <t>高松市　支所・連絡事務所</t>
+  </si>
+  <si>
     <t>https://opendata.smartcity-takamatsu.jp/ckan/dataset/branch</t>
   </si>
   <si>
     <t>32</t>
   </si>
   <si>
+    <t>高松市　市役所・市民サービスセンター</t>
+  </si>
+  <si>
     <t>https://opendata.smartcity-takamatsu.jp/ckan/dataset/citizen_service_center</t>
   </si>
   <si>
     <t>33</t>
   </si>
   <si>
+    <t>高松市　ホール</t>
+  </si>
+  <si>
     <t>文化・スポーツ・公園</t>
   </si>
   <si>
@@ -292,72 +336,108 @@
     <t>34</t>
   </si>
   <si>
+    <t>高松市　歴史・民俗施設</t>
+  </si>
+  <si>
     <t>https://opendata.smartcity-takamatsu.jp/ckan/dataset/folklore_facility</t>
   </si>
   <si>
     <t>35</t>
   </si>
   <si>
+    <t>高松市　図書館</t>
+  </si>
+  <si>
     <t>https://opendata.smartcity-takamatsu.jp/ckan/dataset/library</t>
   </si>
   <si>
     <t>36</t>
   </si>
   <si>
+    <t>高松市　グラウンド</t>
+  </si>
+  <si>
     <t>https://opendata.smartcity-takamatsu.jp/ckan/dataset/ground</t>
   </si>
   <si>
     <t>37</t>
   </si>
   <si>
+    <t>高松市　その他スポーツ施設</t>
+  </si>
+  <si>
     <t>https://opendata.smartcity-takamatsu.jp/ckan/dataset/other_sports_facilities</t>
   </si>
   <si>
     <t>38</t>
   </si>
   <si>
+    <t>高松市　プール</t>
+  </si>
+  <si>
     <t>https://opendata.smartcity-takamatsu.jp/ckan/dataset/pool</t>
   </si>
   <si>
     <t>39</t>
   </si>
   <si>
+    <t>高松市　テニスコート</t>
+  </si>
+  <si>
     <t>https://opendata.smartcity-takamatsu.jp/ckan/dataset/tennis_court</t>
   </si>
   <si>
     <t>40</t>
   </si>
   <si>
+    <t>高松市　体育館・武道館</t>
+  </si>
+  <si>
     <t>https://opendata.smartcity-takamatsu.jp/ckan/dataset/gymnasium</t>
   </si>
   <si>
     <t>41</t>
   </si>
   <si>
+    <t>高松市　公園</t>
+  </si>
+  <si>
     <t>https://opendata.smartcity-takamatsu.jp/ckan/dataset/park</t>
   </si>
   <si>
     <t>42</t>
   </si>
   <si>
+    <t>高松市　野球場ほか</t>
+  </si>
+  <si>
     <t>https://opendata.smartcity-takamatsu.jp/ckan/dataset/baseball_ground_other</t>
   </si>
   <si>
     <t>43</t>
   </si>
   <si>
+    <t>高松市　陸上競技場</t>
+  </si>
+  <si>
     <t>https://opendata.smartcity-takamatsu.jp/ckan/dataset/athletics_stadium</t>
   </si>
   <si>
     <t>44</t>
   </si>
   <si>
+    <t>高松市　美術館</t>
+  </si>
+  <si>
     <t>https://opendata.smartcity-takamatsu.jp/ckan/dataset/amuseum</t>
   </si>
   <si>
     <t>45</t>
   </si>
   <si>
+    <t>高松市　地域包括支援センター</t>
+  </si>
+  <si>
     <t>保健・医療・福祉</t>
   </si>
   <si>
@@ -367,72 +447,108 @@
     <t>46</t>
   </si>
   <si>
+    <t>高松市　障がい福祉施設</t>
+  </si>
+  <si>
     <t>https://opendata.smartcity-takamatsu.jp/ckan/dataset/disabled_welfare_facility</t>
   </si>
   <si>
     <t>47</t>
   </si>
   <si>
+    <t>高松市　老人福祉センターなど</t>
+  </si>
+  <si>
     <t>https://opendata.smartcity-takamatsu.jp/ckan/dataset/elderly_welfare_center</t>
   </si>
   <si>
     <t>48</t>
   </si>
   <si>
+    <t>高松市　老人いこいの家など</t>
+  </si>
+  <si>
     <t>https://opendata.smartcity-takamatsu.jp/ckan/dataset/elderly_wedding_house</t>
   </si>
   <si>
     <t>49</t>
   </si>
   <si>
+    <t>高松市　老人福祉施設</t>
+  </si>
+  <si>
     <t>https://opendata.smartcity-takamatsu.jp/ckan/dataset/elderly_welfare_facility</t>
   </si>
   <si>
     <t>50</t>
   </si>
   <si>
+    <t>高松市　グループホーム</t>
+  </si>
+  <si>
     <t>https://opendata.smartcity-takamatsu.jp/ckan/dataset/group_home</t>
   </si>
   <si>
     <t>51</t>
   </si>
   <si>
+    <t>高松市　小規模多機能型居宅介護施設</t>
+  </si>
+  <si>
     <t>https://opendata.smartcity-takamatsu.jp/ckan/dataset/nursing_home</t>
   </si>
   <si>
     <t>52</t>
   </si>
   <si>
+    <t>高松市　市立病院</t>
+  </si>
+  <si>
     <t>https://opendata.smartcity-takamatsu.jp/ckan/dataset/municipal_hospital</t>
   </si>
   <si>
     <t>53</t>
   </si>
   <si>
+    <t>高松市　保健所・保健センター</t>
+  </si>
+  <si>
     <t>https://opendata.smartcity-takamatsu.jp/ckan/dataset/health_center</t>
   </si>
   <si>
     <t>54</t>
   </si>
   <si>
+    <t>高松市　福祉会館・社会福祉協議会</t>
+  </si>
+  <si>
     <t>https://opendata.smartcity-takamatsu.jp/ckan/dataset/welfare_hall</t>
   </si>
   <si>
     <t>55</t>
   </si>
   <si>
+    <t>高松市　診療所</t>
+  </si>
+  <si>
     <t>https://opendata.smartcity-takamatsu.jp/ckan/dataset/clinic</t>
   </si>
   <si>
     <t>56</t>
   </si>
   <si>
+    <t>高松市　その他福祉施設</t>
+  </si>
+  <si>
     <t>https://opendata.smartcity-takamatsu.jp/ckan/dataset/other_welfare_facilities</t>
   </si>
   <si>
     <t>57</t>
   </si>
   <si>
+    <t>高松市　消防屯所</t>
+  </si>
+  <si>
     <t>防災施設</t>
   </si>
   <si>
@@ -442,24 +558,36 @@
     <t>58</t>
   </si>
   <si>
+    <t>高松市　消防署・消防出張所</t>
+  </si>
+  <si>
     <t>https://opendata.smartcity-takamatsu.jp/ckan/dataset/fire_station</t>
   </si>
   <si>
     <t>59</t>
   </si>
   <si>
+    <t>高松市　市民防災センター</t>
+  </si>
+  <si>
     <t>https://opendata.smartcity-takamatsu.jp/ckan/dataset/citizen_disaster_prevention_center</t>
   </si>
   <si>
     <t>60</t>
   </si>
   <si>
+    <t>高松市　指定緊急避難場所・指定避難所</t>
+  </si>
+  <si>
     <t>https://opendata.smartcity-takamatsu.jp/ckan/dataset/evacuation_space</t>
   </si>
   <si>
     <t>61</t>
   </si>
   <si>
+    <t>高松市　津波避難ビル</t>
+  </si>
+  <si>
     <t>https://opendata.smartcity-takamatsu.jp/ckan/dataset/tsunami_evacuation_building</t>
   </si>
   <si>
@@ -508,33 +636,54 @@
     <t>https://opendata.smartcity-takamatsu.jp/ckan/dataset/population202112</t>
   </si>
   <si>
+    <t>67</t>
+  </si>
+  <si>
     <t>将来推計人口データ</t>
   </si>
   <si>
     <t>https://opendata.smartcity-takamatsu.jp/ckan/dataset/future_population_data</t>
   </si>
   <si>
+    <t>68</t>
+  </si>
+  <si>
     <t>ふれあいセンター</t>
   </si>
   <si>
     <t>https://opendata.smartcity-takamatsu.jp/ckan/dataset/contact_center</t>
   </si>
   <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>高松市　総合センター</t>
+  </si>
+  <si>
     <t>https://opendata.smartcity-takamatsu.jp/ckan/dataset/general_center</t>
   </si>
   <si>
+    <t>70</t>
+  </si>
+  <si>
     <t>地域交流館</t>
   </si>
   <si>
     <t>https://opendata.smartcity-takamatsu.jp/ckan/dataset/regional_exchange_center</t>
   </si>
   <si>
+    <t>71</t>
+  </si>
+  <si>
     <t>商店街通行量情報</t>
   </si>
   <si>
     <t>https://opendata.smartcity-takamatsu.jp/ckan/dataset/shopping_street_traffic_information</t>
   </si>
   <si>
+    <t>72</t>
+  </si>
+  <si>
     <t>ごみ分別一覧</t>
   </si>
   <si>
@@ -544,139 +693,223 @@
     <t>無</t>
   </si>
   <si>
+    <t>73</t>
+  </si>
+  <si>
     <t>投票所一覧</t>
   </si>
   <si>
     <t>https://opendata.smartcity-takamatsu.jp/ckan/dataset/polling_place_list</t>
   </si>
   <si>
+    <t>74</t>
+  </si>
+  <si>
     <t>農業施設一覧</t>
   </si>
   <si>
     <t>https://opendata.smartcity-takamatsu.jp/ckan/dataset/agricultural_facilities_list</t>
   </si>
   <si>
+    <t>75</t>
+  </si>
+  <si>
     <t>道の駅一覧</t>
   </si>
   <si>
     <t>https://opendata.smartcity-takamatsu.jp/ckan/dataset/road_station_list</t>
   </si>
   <si>
+    <t>76</t>
+  </si>
+  <si>
     <t>企業主導型保育施設一覧</t>
   </si>
   <si>
     <t>https://opendata.smartcity-takamatsu.jp/ckan/dataset/company_led_childcare_facilities_list</t>
   </si>
   <si>
+    <t>77</t>
+  </si>
+  <si>
     <t>認可外保育施設一覧</t>
   </si>
   <si>
     <t>https://opendata.smartcity-takamatsu.jp/ckan/dataset/unapproved_childcare_facilities</t>
   </si>
   <si>
+    <t>78</t>
+  </si>
+  <si>
     <t>イベント一覧</t>
   </si>
   <si>
     <t>https://opendata.smartcity-takamatsu.jp/ckan/dataset/event_list</t>
   </si>
   <si>
+    <t>79</t>
+  </si>
+  <si>
     <t>ため池一覧</t>
   </si>
   <si>
     <t>https://opendata.smartcity-takamatsu.jp/ckan/dataset/reservoir_list</t>
   </si>
   <si>
+    <t>80</t>
+  </si>
+  <si>
     <t>高松市組織一覧</t>
   </si>
   <si>
     <t>https://opendata.smartcity-takamatsu.jp/ckan/dataset/takamatsu_city_organization_list</t>
   </si>
   <si>
+    <t>81</t>
+  </si>
+  <si>
     <t>学校給食献立情報</t>
   </si>
   <si>
     <t>https://opendata.smartcity-takamatsu.jp/ckan/dataset/menu_information202202</t>
   </si>
   <si>
+    <t>82</t>
+  </si>
+  <si>
     <t>都市計画基礎調査情報</t>
   </si>
   <si>
     <t>https://opendata.smartcity-takamatsu.jp/ckan/dataset/city_planning_basic_survey_information</t>
   </si>
   <si>
+    <t>83</t>
+  </si>
+  <si>
     <t>使用済小型家電リサイクルBOX設置場所一覧</t>
   </si>
   <si>
     <t>https://opendata.smartcity-takamatsu.jp/ckan/dataset/recycling_box_installation_location</t>
   </si>
   <si>
+    <t>84</t>
+  </si>
+  <si>
     <t>スマートシティたかまつ推進協議会会員企業一覧</t>
   </si>
   <si>
     <t>https://opendata.smartcity-takamatsu.jp/ckan/dataset/list_of_member_companies</t>
   </si>
   <si>
+    <t>85</t>
+  </si>
+  <si>
     <t>ごみ収集日</t>
   </si>
   <si>
     <t>https://opendata.smartcity-takamatsu.jp/ckan/dataset/garbage_collection_date</t>
   </si>
   <si>
+    <t>86</t>
+  </si>
+  <si>
     <t>出生者数・死亡者数</t>
   </si>
   <si>
     <t>https://opendata.smartcity-takamatsu.jp/ckan/dataset/number_of_births_and_deaths_r2</t>
   </si>
   <si>
+    <t>87</t>
+  </si>
+  <si>
     <t>転入・転出者数</t>
   </si>
   <si>
     <t>https://opendata.smartcity-takamatsu.jp/ckan/dataset/number_of_people_moving_in_and_out_r2</t>
   </si>
   <si>
+    <t>88</t>
+  </si>
+  <si>
     <t>公立放課後児童クラブ一覧</t>
   </si>
   <si>
     <t>https://opendata.smartcity-takamatsu.jp/ckan/dataset/children_club_list</t>
   </si>
   <si>
+    <t>89</t>
+  </si>
+  <si>
     <t>民間放課後児童クラブ一覧</t>
   </si>
   <si>
     <t>https://opendata.smartcity-takamatsu.jp/ckan/dataset/children_club</t>
   </si>
   <si>
+    <t>90</t>
+  </si>
+  <si>
     <t>介護保険利用料・被保険者数・要介護者数</t>
   </si>
   <si>
     <t>https://opendata.smartcity-takamatsu.jp/ckan/dataset/number_of_primary_insured</t>
   </si>
   <si>
+    <t>91</t>
+  </si>
+  <si>
     <t>国民健康保険被保険者数</t>
   </si>
   <si>
     <t>https://opendata.smartcity-takamatsu.jp/ckan/dataset/number_of_national_health_insurers</t>
   </si>
   <si>
+    <t>92</t>
+  </si>
+  <si>
     <t>市税決算状況</t>
   </si>
   <si>
     <t>https://opendata.smartcity-takamatsu.jp/ckan/dataset/city_tax_settlement_status_r2</t>
   </si>
   <si>
+    <t>93</t>
+  </si>
+  <si>
     <t>指定収集袋取扱店一覧</t>
   </si>
   <si>
+    <t>94</t>
+  </si>
+  <si>
     <t>オープンデータ一覧</t>
   </si>
   <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>市民満足度アンケート</t>
+  </si>
+  <si>
     <t>PDF</t>
   </si>
   <si>
     <t>https://opendata.smartcity-takamatsu.jp/ckan/dataset/citizen_satisfaction_questionnaire_result_r2</t>
   </si>
   <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>小中学校通学区域情報</t>
+  </si>
+  <si>
     <t>https://opendata.smartcity-takamatsu.jp/ckan/dataset/school_area_information</t>
+  </si>
+  <si>
+    <t>97</t>
+  </si>
+  <si>
+    <t>98</t>
   </si>
   <si>
     <t>美容所新規開設一覧</t>
@@ -714,6 +947,16 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>xlsx,text,RDF,データモデル定義</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
     <t>旅館業新規開設一覧</t>
     <rPh sb="0" eb="2">
       <t>リョカン</t>
@@ -840,292 +1083,11 @@
     <t>児童館など</t>
     <phoneticPr fontId="2"/>
   </si>
-  <si>
-    <t>その他子育て支援施設</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>病児・病後児保育施設</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>地域子育て支援拠点</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>大学</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>レンタサイクルポート</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>市立駐車場</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>市立駐輪場</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>自転車保管所</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>水道施設</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>下水道施設</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>出張所</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>支所・連絡事務所</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>市役所・市民サービスセンター</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ホール</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>歴史・民俗施設</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>図書館</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>グラウンド</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>その他スポーツ施設</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>プール</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>テニスコート</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>体育館・武道館</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>公園</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>野球場ほか</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>陸上競技場</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>美術館</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>地域包括支援センター</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>障がい福祉施設</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>老人福祉センターなど</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>老人いこいの家など</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>老人福祉施設</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>グループホーム</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>小規模多機能型居宅介護施設</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>市立病院</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>保健所・保健センター</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>福祉会館・社会福祉協議会</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>診療所</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>その他福祉施設</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>消防屯所</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>消防署・消防出張所</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>市民防災センター</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>指定緊急避難場所・指定避難所</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>津波避難ビル</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>総合センター</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>理容所新規開設一覧</t>
-    <rPh sb="0" eb="9">
-      <t>リヨウショシンキカイセツイチラン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>公衆浴場新規開設一覧</t>
-    <rPh sb="0" eb="4">
-      <t>コウシュウヨクジョウ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>シンキ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>カイセツ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>イチラン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>文化・スポーツ・公園</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>食品等営業許可施設一覧</t>
-    <rPh sb="0" eb="2">
-      <t>ショクヒン</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ナド</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>エイギョウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>キョカ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>シセツ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>イチラン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>くらし</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>小学校通学区域情報</t>
-    <rPh sb="3" eb="5">
-      <t>ツウガク</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>クイキ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ジョウホウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>市民満足度アンケート結果</t>
-    <rPh sb="10" eb="12">
-      <t>ケッカ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>教育・子育て</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>行政機関</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>常設興行場新規開設一覧</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>https://opendata.smartcity-takamatsu.jp/ckan/dataset/new_barber_shops</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>https://opendata.smartcity-takamatsu.jp/ckan/dataset/new_public_baths</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>https://opendata.smartcity-takamatsu.jp/ckan/dataset/new_permanent_exhibition_hall</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>https://opendata.smartcity-takamatsu.jp/ckan/dataset/licensed_food_business_facility_list</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>xlsx,csv,GeoJSON</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>xlsx,csv,JSON</t>
-    <phoneticPr fontId="2"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1180,7 +1142,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -1191,9 +1153,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -1533,11 +1492,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K113"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K109"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E107" sqref="E107"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -1598,30 +1557,30 @@
         <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>229</v>
+        <v>310</v>
       </c>
       <c r="F2" t="s">
         <v>15</v>
       </c>
       <c r="G2" t="s">
-        <v>304</v>
+        <v>16</v>
       </c>
       <c r="H2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
         <v>12</v>
@@ -1633,30 +1592,30 @@
         <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>230</v>
+        <v>311</v>
       </c>
       <c r="F3" t="s">
         <v>15</v>
       </c>
       <c r="G3" t="s">
-        <v>304</v>
+        <v>16</v>
       </c>
       <c r="H3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s">
         <v>12</v>
@@ -1668,30 +1627,30 @@
         <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F4" t="s">
         <v>15</v>
       </c>
       <c r="G4" t="s">
-        <v>304</v>
+        <v>16</v>
       </c>
       <c r="H4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B5" t="s">
         <v>12</v>
@@ -1703,30 +1662,30 @@
         <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>231</v>
+        <v>312</v>
       </c>
       <c r="F5" t="s">
         <v>15</v>
       </c>
       <c r="G5" t="s">
-        <v>304</v>
+        <v>16</v>
       </c>
       <c r="H5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B6" t="s">
         <v>12</v>
@@ -1738,30 +1697,30 @@
         <v>14</v>
       </c>
       <c r="E6" t="s">
-        <v>232</v>
+        <v>313</v>
       </c>
       <c r="F6" t="s">
         <v>15</v>
       </c>
       <c r="G6" t="s">
-        <v>304</v>
+        <v>16</v>
       </c>
       <c r="H6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B7" t="s">
         <v>12</v>
@@ -1773,30 +1732,30 @@
         <v>14</v>
       </c>
       <c r="E7" t="s">
-        <v>233</v>
+        <v>314</v>
       </c>
       <c r="F7" t="s">
         <v>15</v>
       </c>
       <c r="G7" t="s">
-        <v>304</v>
+        <v>16</v>
       </c>
       <c r="H7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B8" t="s">
         <v>12</v>
@@ -1808,30 +1767,30 @@
         <v>14</v>
       </c>
       <c r="E8" t="s">
-        <v>234</v>
+        <v>315</v>
       </c>
       <c r="F8" t="s">
         <v>15</v>
       </c>
       <c r="G8" t="s">
-        <v>304</v>
+        <v>16</v>
       </c>
       <c r="H8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B9" t="s">
         <v>12</v>
@@ -1843,30 +1802,30 @@
         <v>14</v>
       </c>
       <c r="E9" t="s">
-        <v>235</v>
+        <v>316</v>
       </c>
       <c r="F9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G9" t="s">
-        <v>304</v>
+        <v>16</v>
       </c>
       <c r="H9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B10" t="s">
         <v>12</v>
@@ -1878,30 +1837,30 @@
         <v>14</v>
       </c>
       <c r="E10" t="s">
-        <v>236</v>
+        <v>317</v>
       </c>
       <c r="F10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G10" t="s">
-        <v>304</v>
+        <v>16</v>
       </c>
       <c r="H10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B11" t="s">
         <v>12</v>
@@ -1913,30 +1872,30 @@
         <v>14</v>
       </c>
       <c r="E11" t="s">
-        <v>237</v>
+        <v>318</v>
       </c>
       <c r="F11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G11" t="s">
-        <v>304</v>
+        <v>16</v>
       </c>
       <c r="H11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B12" t="s">
         <v>12</v>
@@ -1948,30 +1907,30 @@
         <v>14</v>
       </c>
       <c r="E12" t="s">
-        <v>238</v>
+        <v>319</v>
       </c>
       <c r="F12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G12" t="s">
-        <v>304</v>
+        <v>16</v>
       </c>
       <c r="H12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B13" t="s">
         <v>12</v>
@@ -1983,30 +1942,30 @@
         <v>14</v>
       </c>
       <c r="E13" t="s">
-        <v>239</v>
+        <v>320</v>
       </c>
       <c r="F13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G13" t="s">
-        <v>304</v>
+        <v>16</v>
       </c>
       <c r="H13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B14" t="s">
         <v>12</v>
@@ -2018,30 +1977,30 @@
         <v>14</v>
       </c>
       <c r="E14" t="s">
-        <v>240</v>
+        <v>321</v>
       </c>
       <c r="F14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G14" t="s">
-        <v>304</v>
+        <v>16</v>
       </c>
       <c r="H14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B15" t="s">
         <v>12</v>
@@ -2053,30 +2012,30 @@
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>241</v>
+        <v>322</v>
       </c>
       <c r="F15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G15" t="s">
-        <v>304</v>
+        <v>16</v>
       </c>
       <c r="H15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K15" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B16" t="s">
         <v>12</v>
@@ -2088,30 +2047,30 @@
         <v>14</v>
       </c>
       <c r="E16" t="s">
-        <v>242</v>
+        <v>323</v>
       </c>
       <c r="F16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G16" t="s">
-        <v>304</v>
+        <v>16</v>
       </c>
       <c r="H16" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B17" t="s">
         <v>12</v>
@@ -2123,30 +2082,30 @@
         <v>14</v>
       </c>
       <c r="E17" t="s">
-        <v>243</v>
+        <v>324</v>
       </c>
       <c r="F17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G17" t="s">
-        <v>304</v>
+        <v>16</v>
       </c>
       <c r="H17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I17" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J17" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K17" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B18" t="s">
         <v>12</v>
@@ -2158,30 +2117,30 @@
         <v>14</v>
       </c>
       <c r="E18" t="s">
-        <v>244</v>
+        <v>325</v>
       </c>
       <c r="F18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G18" t="s">
-        <v>304</v>
+        <v>16</v>
       </c>
       <c r="H18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I18" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J18" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K18" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B19" t="s">
         <v>12</v>
@@ -2193,30 +2152,30 @@
         <v>14</v>
       </c>
       <c r="E19" t="s">
-        <v>245</v>
+        <v>326</v>
       </c>
       <c r="F19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G19" t="s">
-        <v>304</v>
+        <v>16</v>
       </c>
       <c r="H19" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I19" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K19" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B20" t="s">
         <v>12</v>
@@ -2228,30 +2187,30 @@
         <v>14</v>
       </c>
       <c r="E20" t="s">
-        <v>246</v>
+        <v>327</v>
       </c>
       <c r="F20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G20" t="s">
-        <v>304</v>
+        <v>16</v>
       </c>
       <c r="H20" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I20" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K20" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B21" t="s">
         <v>12</v>
@@ -2263,30 +2222,30 @@
         <v>14</v>
       </c>
       <c r="E21" t="s">
-        <v>247</v>
+        <v>61</v>
       </c>
       <c r="F21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G21" t="s">
-        <v>304</v>
+        <v>16</v>
       </c>
       <c r="H21" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="I21" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J21" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K21" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B22" t="s">
         <v>12</v>
@@ -2298,30 +2257,30 @@
         <v>14</v>
       </c>
       <c r="E22" t="s">
-        <v>248</v>
+        <v>64</v>
       </c>
       <c r="F22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G22" t="s">
-        <v>304</v>
+        <v>16</v>
       </c>
       <c r="H22" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="I22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J22" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K22" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B23" t="s">
         <v>12</v>
@@ -2333,30 +2292,30 @@
         <v>14</v>
       </c>
       <c r="E23" t="s">
-        <v>249</v>
+        <v>67</v>
       </c>
       <c r="F23" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G23" t="s">
-        <v>304</v>
+        <v>16</v>
       </c>
       <c r="H23" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="I23" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J23" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K23" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B24" t="s">
         <v>12</v>
@@ -2368,30 +2327,30 @@
         <v>14</v>
       </c>
       <c r="E24" t="s">
-        <v>250</v>
+        <v>70</v>
       </c>
       <c r="F24" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G24" t="s">
-        <v>304</v>
+        <v>16</v>
       </c>
       <c r="H24" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="I24" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J24" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K24" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B25" t="s">
         <v>12</v>
@@ -2403,30 +2362,30 @@
         <v>14</v>
       </c>
       <c r="E25" t="s">
-        <v>251</v>
+        <v>73</v>
       </c>
       <c r="F25" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="G25" t="s">
-        <v>304</v>
+        <v>16</v>
       </c>
       <c r="H25" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="I25" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J25" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K25" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="B26" t="s">
         <v>12</v>
@@ -2438,30 +2397,30 @@
         <v>14</v>
       </c>
       <c r="E26" t="s">
-        <v>252</v>
+        <v>77</v>
       </c>
       <c r="F26" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="G26" t="s">
-        <v>304</v>
+        <v>16</v>
       </c>
       <c r="H26" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="I26" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J26" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K26" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="B27" t="s">
         <v>12</v>
@@ -2473,65 +2432,65 @@
         <v>14</v>
       </c>
       <c r="E27" t="s">
-        <v>253</v>
+        <v>80</v>
       </c>
       <c r="F27" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="G27" t="s">
-        <v>304</v>
+        <v>16</v>
       </c>
       <c r="H27" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="I27" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J27" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K27" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
+        <v>82</v>
+      </c>
+      <c r="B28" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" t="s">
+        <v>14</v>
+      </c>
+      <c r="E28" t="s">
+        <v>83</v>
+      </c>
+      <c r="F28" t="s">
         <v>74</v>
       </c>
-      <c r="B28" t="s">
-        <v>12</v>
-      </c>
-      <c r="C28" t="s">
-        <v>13</v>
-      </c>
-      <c r="D28" t="s">
-        <v>14</v>
-      </c>
-      <c r="E28" t="s">
-        <v>254</v>
-      </c>
-      <c r="F28" t="s">
-        <v>68</v>
-      </c>
       <c r="G28" t="s">
-        <v>304</v>
+        <v>16</v>
       </c>
       <c r="H28" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="I28" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J28" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K28" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="B29" t="s">
         <v>12</v>
@@ -2543,30 +2502,30 @@
         <v>14</v>
       </c>
       <c r="E29" t="s">
-        <v>255</v>
+        <v>86</v>
       </c>
       <c r="F29" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G29" t="s">
-        <v>304</v>
+        <v>16</v>
       </c>
       <c r="H29" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="I29" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K29" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="B30" t="s">
         <v>12</v>
@@ -2578,30 +2537,30 @@
         <v>14</v>
       </c>
       <c r="E30" t="s">
-        <v>256</v>
+        <v>89</v>
       </c>
       <c r="F30" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G30" t="s">
-        <v>304</v>
+        <v>16</v>
       </c>
       <c r="H30" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="I30" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J30" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K30" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="B31" t="s">
         <v>12</v>
@@ -2613,30 +2572,30 @@
         <v>14</v>
       </c>
       <c r="E31" t="s">
-        <v>257</v>
+        <v>92</v>
       </c>
       <c r="F31" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G31" t="s">
-        <v>304</v>
+        <v>16</v>
       </c>
       <c r="H31" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="I31" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J31" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K31" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="B32" t="s">
         <v>12</v>
@@ -2648,30 +2607,30 @@
         <v>14</v>
       </c>
       <c r="E32" t="s">
-        <v>258</v>
+        <v>95</v>
       </c>
       <c r="F32" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G32" t="s">
-        <v>304</v>
+        <v>16</v>
       </c>
       <c r="H32" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="I32" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J32" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K32" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="B33" t="s">
         <v>12</v>
@@ -2683,30 +2642,30 @@
         <v>14</v>
       </c>
       <c r="E33" t="s">
-        <v>259</v>
+        <v>98</v>
       </c>
       <c r="F33" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G33" t="s">
-        <v>304</v>
+        <v>16</v>
       </c>
       <c r="H33" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="I33" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J33" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K33" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="B34" t="s">
         <v>12</v>
@@ -2718,30 +2677,30 @@
         <v>14</v>
       </c>
       <c r="E34" t="s">
-        <v>260</v>
+        <v>101</v>
       </c>
       <c r="F34" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="G34" t="s">
-        <v>304</v>
+        <v>16</v>
       </c>
       <c r="H34" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="I34" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J34" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K34" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="B35" t="s">
         <v>12</v>
@@ -2753,30 +2712,30 @@
         <v>14</v>
       </c>
       <c r="E35" t="s">
-        <v>261</v>
+        <v>105</v>
       </c>
       <c r="F35" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="G35" t="s">
-        <v>304</v>
+        <v>16</v>
       </c>
       <c r="H35" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="I35" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J35" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K35" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="B36" t="s">
         <v>12</v>
@@ -2788,30 +2747,30 @@
         <v>14</v>
       </c>
       <c r="E36" t="s">
-        <v>262</v>
+        <v>108</v>
       </c>
       <c r="F36" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="G36" t="s">
-        <v>304</v>
+        <v>16</v>
       </c>
       <c r="H36" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="I36" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J36" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K36" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="B37" t="s">
         <v>12</v>
@@ -2823,30 +2782,30 @@
         <v>14</v>
       </c>
       <c r="E37" t="s">
-        <v>263</v>
+        <v>111</v>
       </c>
       <c r="F37" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="G37" t="s">
-        <v>304</v>
+        <v>16</v>
       </c>
       <c r="H37" t="s">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="I37" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J37" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K37" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="B38" t="s">
         <v>12</v>
@@ -2858,30 +2817,30 @@
         <v>14</v>
       </c>
       <c r="E38" t="s">
-        <v>264</v>
+        <v>114</v>
       </c>
       <c r="F38" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="G38" t="s">
-        <v>304</v>
+        <v>16</v>
       </c>
       <c r="H38" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="I38" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J38" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K38" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="B39" t="s">
         <v>12</v>
@@ -2893,30 +2852,30 @@
         <v>14</v>
       </c>
       <c r="E39" t="s">
-        <v>265</v>
+        <v>117</v>
       </c>
       <c r="F39" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="G39" t="s">
-        <v>304</v>
+        <v>16</v>
       </c>
       <c r="H39" t="s">
-        <v>98</v>
+        <v>118</v>
       </c>
       <c r="I39" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J39" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K39" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>99</v>
+        <v>119</v>
       </c>
       <c r="B40" t="s">
         <v>12</v>
@@ -2928,30 +2887,30 @@
         <v>14</v>
       </c>
       <c r="E40" t="s">
-        <v>266</v>
+        <v>120</v>
       </c>
       <c r="F40" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="G40" t="s">
-        <v>304</v>
+        <v>16</v>
       </c>
       <c r="H40" t="s">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="I40" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J40" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K40" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>101</v>
+        <v>122</v>
       </c>
       <c r="B41" t="s">
         <v>12</v>
@@ -2963,30 +2922,30 @@
         <v>14</v>
       </c>
       <c r="E41" t="s">
-        <v>267</v>
+        <v>123</v>
       </c>
       <c r="F41" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="G41" t="s">
-        <v>304</v>
+        <v>16</v>
       </c>
       <c r="H41" t="s">
-        <v>102</v>
+        <v>124</v>
       </c>
       <c r="I41" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J41" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K41" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>103</v>
+        <v>125</v>
       </c>
       <c r="B42" t="s">
         <v>12</v>
@@ -2998,30 +2957,30 @@
         <v>14</v>
       </c>
       <c r="E42" t="s">
-        <v>268</v>
+        <v>126</v>
       </c>
       <c r="F42" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="G42" t="s">
-        <v>304</v>
+        <v>16</v>
       </c>
       <c r="H42" t="s">
-        <v>104</v>
+        <v>127</v>
       </c>
       <c r="I42" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J42" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K42" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>105</v>
+        <v>128</v>
       </c>
       <c r="B43" t="s">
         <v>12</v>
@@ -3033,30 +2992,30 @@
         <v>14</v>
       </c>
       <c r="E43" t="s">
-        <v>269</v>
+        <v>129</v>
       </c>
       <c r="F43" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="G43" t="s">
-        <v>304</v>
+        <v>16</v>
       </c>
       <c r="H43" t="s">
-        <v>106</v>
+        <v>130</v>
       </c>
       <c r="I43" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J43" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K43" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
       <c r="B44" t="s">
         <v>12</v>
@@ -3068,30 +3027,30 @@
         <v>14</v>
       </c>
       <c r="E44" t="s">
-        <v>270</v>
+        <v>132</v>
       </c>
       <c r="F44" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="G44" t="s">
-        <v>304</v>
+        <v>16</v>
       </c>
       <c r="H44" t="s">
-        <v>108</v>
+        <v>133</v>
       </c>
       <c r="I44" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J44" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K44" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>109</v>
+        <v>134</v>
       </c>
       <c r="B45" t="s">
         <v>12</v>
@@ -3103,30 +3062,30 @@
         <v>14</v>
       </c>
       <c r="E45" t="s">
-        <v>271</v>
+        <v>135</v>
       </c>
       <c r="F45" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="G45" t="s">
-        <v>304</v>
+        <v>16</v>
       </c>
       <c r="H45" t="s">
-        <v>110</v>
+        <v>136</v>
       </c>
       <c r="I45" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J45" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K45" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>111</v>
+        <v>137</v>
       </c>
       <c r="B46" t="s">
         <v>12</v>
@@ -3138,30 +3097,30 @@
         <v>14</v>
       </c>
       <c r="E46" t="s">
-        <v>272</v>
+        <v>138</v>
       </c>
       <c r="F46" t="s">
-        <v>112</v>
+        <v>139</v>
       </c>
       <c r="G46" t="s">
-        <v>304</v>
+        <v>16</v>
       </c>
       <c r="H46" t="s">
-        <v>113</v>
+        <v>140</v>
       </c>
       <c r="I46" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J46" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K46" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>114</v>
+        <v>141</v>
       </c>
       <c r="B47" t="s">
         <v>12</v>
@@ -3173,30 +3132,30 @@
         <v>14</v>
       </c>
       <c r="E47" t="s">
-        <v>273</v>
+        <v>142</v>
       </c>
       <c r="F47" t="s">
-        <v>112</v>
+        <v>139</v>
       </c>
       <c r="G47" t="s">
-        <v>304</v>
+        <v>16</v>
       </c>
       <c r="H47" t="s">
-        <v>115</v>
+        <v>143</v>
       </c>
       <c r="I47" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J47" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K47" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>116</v>
+        <v>144</v>
       </c>
       <c r="B48" t="s">
         <v>12</v>
@@ -3208,30 +3167,30 @@
         <v>14</v>
       </c>
       <c r="E48" t="s">
-        <v>274</v>
+        <v>145</v>
       </c>
       <c r="F48" t="s">
-        <v>112</v>
+        <v>139</v>
       </c>
       <c r="G48" t="s">
-        <v>304</v>
+        <v>16</v>
       </c>
       <c r="H48" t="s">
-        <v>117</v>
+        <v>146</v>
       </c>
       <c r="I48" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J48" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K48" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>118</v>
+        <v>147</v>
       </c>
       <c r="B49" t="s">
         <v>12</v>
@@ -3243,30 +3202,30 @@
         <v>14</v>
       </c>
       <c r="E49" t="s">
-        <v>275</v>
+        <v>148</v>
       </c>
       <c r="F49" t="s">
-        <v>112</v>
+        <v>139</v>
       </c>
       <c r="G49" t="s">
-        <v>304</v>
+        <v>16</v>
       </c>
       <c r="H49" t="s">
-        <v>119</v>
+        <v>149</v>
       </c>
       <c r="I49" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J49" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K49" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="B50" t="s">
         <v>12</v>
@@ -3278,30 +3237,30 @@
         <v>14</v>
       </c>
       <c r="E50" t="s">
-        <v>276</v>
+        <v>151</v>
       </c>
       <c r="F50" t="s">
-        <v>112</v>
+        <v>139</v>
       </c>
       <c r="G50" t="s">
-        <v>304</v>
+        <v>16</v>
       </c>
       <c r="H50" t="s">
-        <v>121</v>
+        <v>152</v>
       </c>
       <c r="I50" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J50" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K50" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>122</v>
+        <v>153</v>
       </c>
       <c r="B51" t="s">
         <v>12</v>
@@ -3313,30 +3272,30 @@
         <v>14</v>
       </c>
       <c r="E51" t="s">
-        <v>277</v>
+        <v>154</v>
       </c>
       <c r="F51" t="s">
-        <v>112</v>
+        <v>139</v>
       </c>
       <c r="G51" t="s">
-        <v>304</v>
+        <v>16</v>
       </c>
       <c r="H51" t="s">
-        <v>123</v>
+        <v>155</v>
       </c>
       <c r="I51" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J51" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K51" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>124</v>
+        <v>156</v>
       </c>
       <c r="B52" t="s">
         <v>12</v>
@@ -3348,30 +3307,30 @@
         <v>14</v>
       </c>
       <c r="E52" t="s">
-        <v>278</v>
+        <v>157</v>
       </c>
       <c r="F52" t="s">
-        <v>112</v>
+        <v>139</v>
       </c>
       <c r="G52" t="s">
-        <v>304</v>
+        <v>16</v>
       </c>
       <c r="H52" t="s">
-        <v>125</v>
+        <v>158</v>
       </c>
       <c r="I52" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J52" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K52" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>126</v>
+        <v>159</v>
       </c>
       <c r="B53" t="s">
         <v>12</v>
@@ -3383,30 +3342,30 @@
         <v>14</v>
       </c>
       <c r="E53" t="s">
-        <v>279</v>
+        <v>160</v>
       </c>
       <c r="F53" t="s">
-        <v>112</v>
+        <v>139</v>
       </c>
       <c r="G53" t="s">
-        <v>304</v>
+        <v>16</v>
       </c>
       <c r="H53" t="s">
-        <v>127</v>
+        <v>161</v>
       </c>
       <c r="I53" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J53" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K53" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>128</v>
+        <v>162</v>
       </c>
       <c r="B54" t="s">
         <v>12</v>
@@ -3418,30 +3377,30 @@
         <v>14</v>
       </c>
       <c r="E54" t="s">
-        <v>280</v>
+        <v>163</v>
       </c>
       <c r="F54" t="s">
-        <v>112</v>
+        <v>139</v>
       </c>
       <c r="G54" t="s">
-        <v>304</v>
+        <v>16</v>
       </c>
       <c r="H54" t="s">
-        <v>129</v>
+        <v>164</v>
       </c>
       <c r="I54" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J54" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K54" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>130</v>
+        <v>165</v>
       </c>
       <c r="B55" t="s">
         <v>12</v>
@@ -3453,30 +3412,30 @@
         <v>14</v>
       </c>
       <c r="E55" t="s">
-        <v>281</v>
+        <v>166</v>
       </c>
       <c r="F55" t="s">
-        <v>112</v>
+        <v>139</v>
       </c>
       <c r="G55" t="s">
-        <v>304</v>
+        <v>16</v>
       </c>
       <c r="H55" t="s">
-        <v>131</v>
+        <v>167</v>
       </c>
       <c r="I55" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J55" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K55" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>132</v>
+        <v>168</v>
       </c>
       <c r="B56" t="s">
         <v>12</v>
@@ -3488,30 +3447,30 @@
         <v>14</v>
       </c>
       <c r="E56" t="s">
-        <v>282</v>
+        <v>169</v>
       </c>
       <c r="F56" t="s">
-        <v>112</v>
+        <v>139</v>
       </c>
       <c r="G56" t="s">
-        <v>304</v>
+        <v>16</v>
       </c>
       <c r="H56" t="s">
-        <v>133</v>
+        <v>170</v>
       </c>
       <c r="I56" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J56" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K56" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>134</v>
+        <v>171</v>
       </c>
       <c r="B57" t="s">
         <v>12</v>
@@ -3523,30 +3482,30 @@
         <v>14</v>
       </c>
       <c r="E57" t="s">
-        <v>283</v>
+        <v>172</v>
       </c>
       <c r="F57" t="s">
-        <v>112</v>
+        <v>139</v>
       </c>
       <c r="G57" t="s">
-        <v>304</v>
+        <v>16</v>
       </c>
       <c r="H57" t="s">
-        <v>135</v>
+        <v>173</v>
       </c>
       <c r="I57" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J57" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K57" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>136</v>
+        <v>174</v>
       </c>
       <c r="B58" t="s">
         <v>12</v>
@@ -3558,30 +3517,30 @@
         <v>14</v>
       </c>
       <c r="E58" t="s">
-        <v>284</v>
+        <v>175</v>
       </c>
       <c r="F58" t="s">
-        <v>137</v>
+        <v>176</v>
       </c>
       <c r="G58" t="s">
-        <v>304</v>
+        <v>16</v>
       </c>
       <c r="H58" t="s">
-        <v>138</v>
+        <v>177</v>
       </c>
       <c r="I58" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J58" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K58" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>139</v>
+        <v>178</v>
       </c>
       <c r="B59" t="s">
         <v>12</v>
@@ -3593,30 +3552,30 @@
         <v>14</v>
       </c>
       <c r="E59" t="s">
-        <v>285</v>
+        <v>179</v>
       </c>
       <c r="F59" t="s">
-        <v>137</v>
+        <v>176</v>
       </c>
       <c r="G59" t="s">
-        <v>304</v>
+        <v>16</v>
       </c>
       <c r="H59" t="s">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="I59" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J59" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K59" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
       <c r="B60" t="s">
         <v>12</v>
@@ -3628,30 +3587,30 @@
         <v>14</v>
       </c>
       <c r="E60" t="s">
-        <v>286</v>
+        <v>182</v>
       </c>
       <c r="F60" t="s">
-        <v>137</v>
+        <v>176</v>
       </c>
       <c r="G60" t="s">
-        <v>304</v>
+        <v>16</v>
       </c>
       <c r="H60" t="s">
-        <v>142</v>
+        <v>183</v>
       </c>
       <c r="I60" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J60" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K60" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>143</v>
+        <v>184</v>
       </c>
       <c r="B61" t="s">
         <v>12</v>
@@ -3663,30 +3622,30 @@
         <v>14</v>
       </c>
       <c r="E61" t="s">
-        <v>287</v>
+        <v>185</v>
       </c>
       <c r="F61" t="s">
-        <v>137</v>
+        <v>176</v>
       </c>
       <c r="G61" t="s">
-        <v>304</v>
+        <v>16</v>
       </c>
       <c r="H61" t="s">
-        <v>144</v>
+        <v>186</v>
       </c>
       <c r="I61" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J61" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K61" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>145</v>
+        <v>187</v>
       </c>
       <c r="B62" t="s">
         <v>12</v>
@@ -3698,30 +3657,30 @@
         <v>14</v>
       </c>
       <c r="E62" t="s">
-        <v>288</v>
+        <v>188</v>
       </c>
       <c r="F62" t="s">
-        <v>137</v>
+        <v>176</v>
       </c>
       <c r="G62" t="s">
-        <v>304</v>
+        <v>16</v>
       </c>
       <c r="H62" t="s">
-        <v>146</v>
+        <v>189</v>
       </c>
       <c r="I62" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J62" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K62" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>147</v>
+        <v>190</v>
       </c>
       <c r="B63" t="s">
         <v>12</v>
@@ -3733,30 +3692,30 @@
         <v>14</v>
       </c>
       <c r="E63" t="s">
-        <v>148</v>
+        <v>191</v>
       </c>
       <c r="F63" t="s">
-        <v>112</v>
+        <v>139</v>
       </c>
       <c r="G63" t="s">
-        <v>304</v>
+        <v>16</v>
       </c>
       <c r="H63" t="s">
-        <v>149</v>
+        <v>192</v>
       </c>
       <c r="I63" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J63" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K63" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>150</v>
+        <v>193</v>
       </c>
       <c r="B64" t="s">
         <v>12</v>
@@ -3768,30 +3727,30 @@
         <v>14</v>
       </c>
       <c r="E64" t="s">
-        <v>151</v>
+        <v>194</v>
       </c>
       <c r="F64" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="G64" t="s">
-        <v>304</v>
+        <v>16</v>
       </c>
       <c r="H64" t="s">
-        <v>152</v>
+        <v>195</v>
       </c>
       <c r="I64" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J64" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K64" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>153</v>
+        <v>196</v>
       </c>
       <c r="B65" t="s">
         <v>12</v>
@@ -3803,30 +3762,30 @@
         <v>14</v>
       </c>
       <c r="E65" t="s">
-        <v>154</v>
+        <v>197</v>
       </c>
       <c r="F65" t="s">
         <v>15</v>
       </c>
       <c r="G65" t="s">
-        <v>304</v>
+        <v>16</v>
       </c>
       <c r="H65" t="s">
-        <v>155</v>
+        <v>198</v>
       </c>
       <c r="I65" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J65" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K65" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>156</v>
+        <v>199</v>
       </c>
       <c r="B66" t="s">
         <v>12</v>
@@ -3838,30 +3797,30 @@
         <v>14</v>
       </c>
       <c r="E66" t="s">
-        <v>157</v>
+        <v>200</v>
       </c>
       <c r="F66" t="s">
         <v>15</v>
       </c>
       <c r="G66" t="s">
-        <v>304</v>
+        <v>16</v>
       </c>
       <c r="H66" t="s">
-        <v>158</v>
+        <v>201</v>
       </c>
       <c r="I66" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J66" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K66" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>159</v>
+        <v>202</v>
       </c>
       <c r="B67" t="s">
         <v>12</v>
@@ -3873,30 +3832,30 @@
         <v>14</v>
       </c>
       <c r="E67" t="s">
-        <v>160</v>
+        <v>203</v>
       </c>
       <c r="F67" t="s">
         <v>15</v>
       </c>
       <c r="G67" t="s">
-        <v>305</v>
+        <v>16</v>
       </c>
       <c r="H67" t="s">
-        <v>161</v>
+        <v>204</v>
       </c>
       <c r="I67" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J67" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K67" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A68" s="6">
-        <v>68</v>
+      <c r="A68" t="s">
+        <v>205</v>
       </c>
       <c r="B68" t="s">
         <v>12</v>
@@ -3908,30 +3867,30 @@
         <v>14</v>
       </c>
       <c r="E68" t="s">
-        <v>162</v>
+        <v>206</v>
       </c>
       <c r="F68" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G68" t="s">
-        <v>305</v>
+        <v>16</v>
       </c>
       <c r="H68" t="s">
-        <v>163</v>
+        <v>207</v>
       </c>
       <c r="I68" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J68" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K68" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A69" s="6">
-        <v>69</v>
+      <c r="A69" t="s">
+        <v>208</v>
       </c>
       <c r="B69" t="s">
         <v>12</v>
@@ -3943,30 +3902,30 @@
         <v>14</v>
       </c>
       <c r="E69" t="s">
-        <v>164</v>
+        <v>209</v>
       </c>
       <c r="F69" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G69" t="s">
-        <v>304</v>
+        <v>16</v>
       </c>
       <c r="H69" t="s">
-        <v>165</v>
+        <v>210</v>
       </c>
       <c r="I69" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J69" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K69" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A70" s="6">
-        <v>70</v>
+      <c r="A70" t="s">
+        <v>211</v>
       </c>
       <c r="B70" t="s">
         <v>12</v>
@@ -3978,30 +3937,30 @@
         <v>14</v>
       </c>
       <c r="E70" t="s">
-        <v>289</v>
+        <v>212</v>
       </c>
       <c r="F70" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G70" t="s">
-        <v>304</v>
+        <v>16</v>
       </c>
       <c r="H70" t="s">
-        <v>166</v>
+        <v>213</v>
       </c>
       <c r="I70" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J70" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K70" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A71" s="6">
-        <v>71</v>
+      <c r="A71" t="s">
+        <v>214</v>
       </c>
       <c r="B71" t="s">
         <v>12</v>
@@ -4013,30 +3972,30 @@
         <v>14</v>
       </c>
       <c r="E71" t="s">
-        <v>167</v>
+        <v>215</v>
       </c>
       <c r="F71" t="s">
         <v>15</v>
       </c>
       <c r="G71" t="s">
-        <v>304</v>
+        <v>16</v>
       </c>
       <c r="H71" t="s">
-        <v>168</v>
+        <v>216</v>
       </c>
       <c r="I71" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J71" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K71" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A72" s="6">
-        <v>73</v>
+      <c r="A72" t="s">
+        <v>217</v>
       </c>
       <c r="B72" t="s">
         <v>12</v>
@@ -4048,30 +4007,30 @@
         <v>14</v>
       </c>
       <c r="E72" t="s">
-        <v>169</v>
+        <v>218</v>
       </c>
       <c r="F72" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="G72" t="s">
-        <v>304</v>
+        <v>16</v>
       </c>
       <c r="H72" t="s">
-        <v>170</v>
+        <v>219</v>
       </c>
       <c r="I72" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J72" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K72" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A73" s="6">
-        <v>74</v>
+      <c r="A73" t="s">
+        <v>220</v>
       </c>
       <c r="B73" t="s">
         <v>12</v>
@@ -4083,30 +4042,30 @@
         <v>14</v>
       </c>
       <c r="E73" t="s">
-        <v>171</v>
+        <v>221</v>
       </c>
       <c r="F73" t="s">
         <v>15</v>
       </c>
       <c r="G73" t="s">
-        <v>304</v>
+        <v>16</v>
       </c>
       <c r="H73" t="s">
-        <v>172</v>
+        <v>222</v>
       </c>
       <c r="I73" t="s">
-        <v>17</v>
+        <v>223</v>
       </c>
       <c r="J73" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K73" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A74" s="6">
-        <v>75</v>
+      <c r="A74" t="s">
+        <v>224</v>
       </c>
       <c r="B74" t="s">
         <v>12</v>
@@ -4118,30 +4077,30 @@
         <v>14</v>
       </c>
       <c r="E74" t="s">
-        <v>174</v>
+        <v>225</v>
       </c>
       <c r="F74" t="s">
         <v>15</v>
       </c>
       <c r="G74" t="s">
-        <v>304</v>
+        <v>16</v>
       </c>
       <c r="H74" t="s">
-        <v>175</v>
+        <v>226</v>
       </c>
       <c r="I74" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J74" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K74" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A75" s="6">
-        <v>76</v>
+      <c r="A75" t="s">
+        <v>227</v>
       </c>
       <c r="B75" t="s">
         <v>12</v>
@@ -4153,30 +4112,30 @@
         <v>14</v>
       </c>
       <c r="E75" t="s">
-        <v>176</v>
+        <v>228</v>
       </c>
       <c r="F75" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G75" t="s">
-        <v>304</v>
+        <v>16</v>
       </c>
       <c r="H75" t="s">
-        <v>177</v>
+        <v>229</v>
       </c>
       <c r="I75" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J75" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K75" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A76" s="6">
-        <v>77</v>
+      <c r="A76" t="s">
+        <v>230</v>
       </c>
       <c r="B76" t="s">
         <v>12</v>
@@ -4188,30 +4147,30 @@
         <v>14</v>
       </c>
       <c r="E76" t="s">
-        <v>178</v>
+        <v>231</v>
       </c>
       <c r="F76" t="s">
-        <v>292</v>
+        <v>102</v>
       </c>
       <c r="G76" t="s">
-        <v>304</v>
+        <v>16</v>
       </c>
       <c r="H76" t="s">
-        <v>179</v>
+        <v>232</v>
       </c>
       <c r="I76" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J76" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K76" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A77" s="6">
-        <v>78</v>
+      <c r="A77" t="s">
+        <v>233</v>
       </c>
       <c r="B77" t="s">
         <v>12</v>
@@ -4223,30 +4182,30 @@
         <v>14</v>
       </c>
       <c r="E77" t="s">
-        <v>180</v>
+        <v>234</v>
       </c>
       <c r="F77" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G77" t="s">
-        <v>304</v>
+        <v>16</v>
       </c>
       <c r="H77" t="s">
-        <v>181</v>
+        <v>235</v>
       </c>
       <c r="I77" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J77" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K77" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A78" s="6">
-        <v>79</v>
+      <c r="A78" t="s">
+        <v>236</v>
       </c>
       <c r="B78" t="s">
         <v>12</v>
@@ -4258,30 +4217,30 @@
         <v>14</v>
       </c>
       <c r="E78" t="s">
-        <v>182</v>
+        <v>237</v>
       </c>
       <c r="F78" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G78" t="s">
-        <v>304</v>
+        <v>16</v>
       </c>
       <c r="H78" t="s">
-        <v>183</v>
+        <v>238</v>
       </c>
       <c r="I78" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J78" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K78" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A79" s="6">
-        <v>81</v>
+      <c r="A79" t="s">
+        <v>239</v>
       </c>
       <c r="B79" t="s">
         <v>12</v>
@@ -4293,30 +4252,30 @@
         <v>14</v>
       </c>
       <c r="E79" t="s">
-        <v>184</v>
+        <v>240</v>
       </c>
       <c r="F79" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G79" t="s">
-        <v>305</v>
+        <v>16</v>
       </c>
       <c r="H79" t="s">
-        <v>185</v>
+        <v>241</v>
       </c>
       <c r="I79" t="s">
-        <v>17</v>
+        <v>223</v>
       </c>
       <c r="J79" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K79" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A80" s="6">
-        <v>82</v>
+      <c r="A80" t="s">
+        <v>242</v>
       </c>
       <c r="B80" t="s">
         <v>12</v>
@@ -4328,30 +4287,30 @@
         <v>14</v>
       </c>
       <c r="E80" t="s">
-        <v>186</v>
+        <v>243</v>
       </c>
       <c r="F80" t="s">
         <v>15</v>
       </c>
       <c r="G80" t="s">
-        <v>304</v>
+        <v>16</v>
       </c>
       <c r="H80" t="s">
-        <v>187</v>
+        <v>244</v>
       </c>
       <c r="I80" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J80" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K80" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A81" s="6">
-        <v>83</v>
+      <c r="A81" t="s">
+        <v>245</v>
       </c>
       <c r="B81" t="s">
         <v>12</v>
@@ -4363,30 +4322,30 @@
         <v>14</v>
       </c>
       <c r="E81" t="s">
-        <v>188</v>
+        <v>246</v>
       </c>
       <c r="F81" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G81" t="s">
-        <v>305</v>
+        <v>16</v>
       </c>
       <c r="H81" t="s">
-        <v>189</v>
+        <v>247</v>
       </c>
       <c r="I81" t="s">
-        <v>17</v>
+        <v>223</v>
       </c>
       <c r="J81" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K81" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A82" s="6">
-        <v>84</v>
+      <c r="A82" t="s">
+        <v>248</v>
       </c>
       <c r="B82" t="s">
         <v>12</v>
@@ -4398,30 +4357,30 @@
         <v>14</v>
       </c>
       <c r="E82" t="s">
-        <v>190</v>
+        <v>249</v>
       </c>
       <c r="F82" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G82" t="s">
-        <v>305</v>
+        <v>16</v>
       </c>
       <c r="H82" t="s">
-        <v>191</v>
+        <v>250</v>
       </c>
       <c r="I82" t="s">
-        <v>17</v>
+        <v>223</v>
       </c>
       <c r="J82" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K82" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A83" s="6">
-        <v>85</v>
+      <c r="A83" t="s">
+        <v>251</v>
       </c>
       <c r="B83" t="s">
         <v>12</v>
@@ -4433,30 +4392,30 @@
         <v>14</v>
       </c>
       <c r="E83" t="s">
-        <v>192</v>
+        <v>252</v>
       </c>
       <c r="F83" t="s">
         <v>15</v>
       </c>
       <c r="G83" t="s">
-        <v>305</v>
+        <v>16</v>
       </c>
       <c r="H83" t="s">
-        <v>193</v>
+        <v>253</v>
       </c>
       <c r="I83" t="s">
-        <v>17</v>
+        <v>223</v>
       </c>
       <c r="J83" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K83" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A84" s="6">
-        <v>86</v>
+      <c r="A84" t="s">
+        <v>254</v>
       </c>
       <c r="B84" t="s">
         <v>12</v>
@@ -4468,30 +4427,30 @@
         <v>14</v>
       </c>
       <c r="E84" t="s">
-        <v>194</v>
+        <v>255</v>
       </c>
       <c r="F84" t="s">
         <v>15</v>
       </c>
       <c r="G84" t="s">
-        <v>304</v>
+        <v>16</v>
       </c>
       <c r="H84" t="s">
-        <v>195</v>
+        <v>256</v>
       </c>
       <c r="I84" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J84" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K84" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A85" s="6">
-        <v>87</v>
+      <c r="A85" t="s">
+        <v>257</v>
       </c>
       <c r="B85" t="s">
         <v>12</v>
@@ -4503,30 +4462,30 @@
         <v>14</v>
       </c>
       <c r="E85" t="s">
-        <v>196</v>
+        <v>258</v>
       </c>
       <c r="F85" t="s">
         <v>15</v>
       </c>
       <c r="G85" t="s">
-        <v>305</v>
+        <v>16</v>
       </c>
       <c r="H85" t="s">
-        <v>197</v>
+        <v>259</v>
       </c>
       <c r="I85" t="s">
-        <v>17</v>
+        <v>223</v>
       </c>
       <c r="J85" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K85" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A86" s="6">
-        <v>90</v>
+      <c r="A86" t="s">
+        <v>260</v>
       </c>
       <c r="B86" t="s">
         <v>12</v>
@@ -4538,30 +4497,30 @@
         <v>14</v>
       </c>
       <c r="E86" t="s">
-        <v>198</v>
+        <v>261</v>
       </c>
       <c r="F86" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G86" t="s">
-        <v>305</v>
+        <v>16</v>
       </c>
       <c r="H86" t="s">
-        <v>199</v>
+        <v>262</v>
       </c>
       <c r="I86" t="s">
-        <v>17</v>
+        <v>223</v>
       </c>
       <c r="J86" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K86" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A87" s="6">
-        <v>91</v>
+      <c r="A87" t="s">
+        <v>263</v>
       </c>
       <c r="B87" t="s">
         <v>12</v>
@@ -4573,30 +4532,30 @@
         <v>14</v>
       </c>
       <c r="E87" t="s">
-        <v>200</v>
+        <v>264</v>
       </c>
       <c r="F87" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G87" t="s">
-        <v>305</v>
+        <v>16</v>
       </c>
       <c r="H87" t="s">
-        <v>201</v>
+        <v>265</v>
       </c>
       <c r="I87" t="s">
-        <v>17</v>
+        <v>223</v>
       </c>
       <c r="J87" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K87" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A88" s="6">
-        <v>92</v>
+      <c r="A88" t="s">
+        <v>266</v>
       </c>
       <c r="B88" t="s">
         <v>12</v>
@@ -4608,30 +4567,30 @@
         <v>14</v>
       </c>
       <c r="E88" t="s">
-        <v>202</v>
+        <v>267</v>
       </c>
       <c r="F88" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G88" t="s">
-        <v>305</v>
+        <v>16</v>
       </c>
       <c r="H88" t="s">
-        <v>203</v>
+        <v>268</v>
       </c>
       <c r="I88" t="s">
-        <v>17</v>
+        <v>223</v>
       </c>
       <c r="J88" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K88" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A89" s="6">
-        <v>93</v>
+      <c r="A89" t="s">
+        <v>269</v>
       </c>
       <c r="B89" t="s">
         <v>12</v>
@@ -4643,30 +4602,30 @@
         <v>14</v>
       </c>
       <c r="E89" t="s">
-        <v>204</v>
+        <v>270</v>
       </c>
       <c r="F89" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G89" t="s">
-        <v>305</v>
+        <v>16</v>
       </c>
       <c r="H89" t="s">
-        <v>205</v>
+        <v>271</v>
       </c>
       <c r="I89" t="s">
-        <v>17</v>
+        <v>223</v>
       </c>
       <c r="J89" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K89" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A90" s="6">
-        <v>94</v>
+      <c r="A90" t="s">
+        <v>272</v>
       </c>
       <c r="B90" t="s">
         <v>12</v>
@@ -4678,30 +4637,30 @@
         <v>14</v>
       </c>
       <c r="E90" t="s">
-        <v>206</v>
+        <v>273</v>
       </c>
       <c r="F90" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G90" t="s">
-        <v>304</v>
+        <v>16</v>
       </c>
       <c r="H90" t="s">
-        <v>207</v>
+        <v>274</v>
       </c>
       <c r="I90" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J90" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K90" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A91" s="6">
-        <v>95</v>
+      <c r="A91" t="s">
+        <v>275</v>
       </c>
       <c r="B91" t="s">
         <v>12</v>
@@ -4713,30 +4672,30 @@
         <v>14</v>
       </c>
       <c r="E91" t="s">
-        <v>208</v>
+        <v>276</v>
       </c>
       <c r="F91" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G91" t="s">
-        <v>305</v>
+        <v>16</v>
       </c>
       <c r="H91" t="s">
-        <v>209</v>
+        <v>277</v>
       </c>
       <c r="I91" t="s">
-        <v>17</v>
+        <v>223</v>
       </c>
       <c r="J91" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K91" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A92" s="6">
-        <v>96</v>
+      <c r="A92" t="s">
+        <v>278</v>
       </c>
       <c r="B92" t="s">
         <v>12</v>
@@ -4748,30 +4707,30 @@
         <v>14</v>
       </c>
       <c r="E92" t="s">
-        <v>210</v>
+        <v>279</v>
       </c>
       <c r="F92" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G92" t="s">
-        <v>305</v>
+        <v>16</v>
       </c>
       <c r="H92" t="s">
-        <v>211</v>
+        <v>280</v>
       </c>
       <c r="I92" t="s">
-        <v>17</v>
+        <v>223</v>
       </c>
       <c r="J92" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K92" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A93" s="6">
-        <v>97</v>
+      <c r="A93" t="s">
+        <v>281</v>
       </c>
       <c r="B93" t="s">
         <v>12</v>
@@ -4783,30 +4742,30 @@
         <v>14</v>
       </c>
       <c r="E93" t="s">
-        <v>212</v>
+        <v>282</v>
       </c>
       <c r="F93" t="s">
-        <v>298</v>
+        <v>87</v>
       </c>
       <c r="G93" t="s">
-        <v>305</v>
+        <v>16</v>
       </c>
       <c r="H93" t="s">
-        <v>213</v>
+        <v>283</v>
       </c>
       <c r="I93" t="s">
-        <v>17</v>
+        <v>223</v>
       </c>
       <c r="J93" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K93" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A94" s="6">
-        <v>98</v>
+      <c r="A94" t="s">
+        <v>284</v>
       </c>
       <c r="B94" t="s">
         <v>12</v>
@@ -4818,30 +4777,30 @@
         <v>14</v>
       </c>
       <c r="E94" t="s">
-        <v>214</v>
+        <v>285</v>
       </c>
       <c r="F94" t="s">
         <v>15</v>
       </c>
       <c r="G94" t="s">
-        <v>304</v>
+        <v>16</v>
       </c>
       <c r="H94" s="4" t="s">
-        <v>225</v>
+        <v>306</v>
       </c>
       <c r="I94" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J94" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K94" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A95" s="6">
-        <v>99</v>
+      <c r="A95" t="s">
+        <v>286</v>
       </c>
       <c r="B95" t="s">
         <v>12</v>
@@ -4853,30 +4812,30 @@
         <v>14</v>
       </c>
       <c r="E95" t="s">
-        <v>215</v>
+        <v>287</v>
       </c>
       <c r="F95" t="s">
         <v>15</v>
       </c>
       <c r="G95" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="H95" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="I95" t="s">
         <v>223</v>
       </c>
-      <c r="I95" t="s">
-        <v>17</v>
-      </c>
       <c r="J95" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K95" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A96" s="6">
-        <v>100</v>
+      <c r="A96" t="s">
+        <v>288</v>
       </c>
       <c r="B96" t="s">
         <v>12</v>
@@ -4888,27 +4847,27 @@
         <v>14</v>
       </c>
       <c r="E96" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="F96" t="s">
         <v>15</v>
       </c>
       <c r="G96" t="s">
-        <v>305</v>
-      </c>
-      <c r="H96" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
+      </c>
+      <c r="H96" s="5" t="s">
+        <v>307</v>
       </c>
       <c r="I96" t="s">
-        <v>17</v>
+        <v>223</v>
       </c>
       <c r="J96" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A97" s="6">
-        <v>101</v>
+      <c r="A97" t="s">
+        <v>292</v>
       </c>
       <c r="B97" t="s">
         <v>12</v>
@@ -4920,27 +4879,27 @@
         <v>14</v>
       </c>
       <c r="E97" t="s">
-        <v>219</v>
+        <v>298</v>
       </c>
       <c r="F97" t="s">
         <v>15</v>
       </c>
       <c r="G97" t="s">
+        <v>16</v>
+      </c>
+      <c r="H97" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="H97" s="5" t="s">
-        <v>226</v>
-      </c>
       <c r="I97" t="s">
-        <v>17</v>
+        <v>223</v>
       </c>
       <c r="J97" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A98" s="6">
-        <v>102</v>
+      <c r="A98" t="s">
+        <v>295</v>
       </c>
       <c r="B98" t="s">
         <v>12</v>
@@ -4952,27 +4911,27 @@
         <v>14</v>
       </c>
       <c r="E98" t="s">
-        <v>220</v>
+        <v>302</v>
       </c>
       <c r="F98" t="s">
         <v>15</v>
       </c>
       <c r="G98" t="s">
-        <v>305</v>
+        <v>16</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>224</v>
+        <v>308</v>
       </c>
       <c r="I98" t="s">
-        <v>17</v>
+        <v>223</v>
       </c>
       <c r="J98" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A99" s="6">
-        <v>103</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>296</v>
       </c>
       <c r="B99" t="s">
         <v>12</v>
@@ -4984,27 +4943,24 @@
         <v>14</v>
       </c>
       <c r="E99" t="s">
-        <v>221</v>
+        <v>303</v>
       </c>
       <c r="F99" t="s">
         <v>15</v>
       </c>
       <c r="G99" t="s">
-        <v>305</v>
-      </c>
-      <c r="H99" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="I99" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="H99" s="2" t="s">
+        <v>309</v>
       </c>
       <c r="J99" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A100" s="6">
-        <v>104</v>
+      <c r="A100" t="s">
+        <v>300</v>
       </c>
       <c r="B100" t="s">
         <v>12</v>
@@ -5016,28 +4972,31 @@
         <v>14</v>
       </c>
       <c r="E100" t="s">
+        <v>289</v>
+      </c>
+      <c r="F100" t="s">
+        <v>87</v>
+      </c>
+      <c r="G100" t="s">
+        <v>290</v>
+      </c>
+      <c r="H100" t="s">
         <v>291</v>
       </c>
-      <c r="F100" t="s">
-        <v>15</v>
-      </c>
-      <c r="G100" t="s">
-        <v>305</v>
-      </c>
-      <c r="H100" s="1" t="s">
+      <c r="I100" t="s">
+        <v>223</v>
+      </c>
+      <c r="J100" t="s">
+        <v>19</v>
+      </c>
+      <c r="K100" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
         <v>301</v>
       </c>
-      <c r="I100" t="s">
-        <v>17</v>
-      </c>
-      <c r="J100" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A101" s="6">
-        <v>105</v>
-      </c>
       <c r="B101" t="s">
         <v>12</v>
       </c>
@@ -5048,174 +5007,44 @@
         <v>14</v>
       </c>
       <c r="E101" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="F101" t="s">
+        <v>44</v>
+      </c>
+      <c r="G101" t="s">
+        <v>290</v>
+      </c>
+      <c r="H101" t="s">
         <v>294</v>
       </c>
-      <c r="G101" t="s">
-        <v>305</v>
-      </c>
-      <c r="H101" s="1" t="s">
-        <v>302</v>
-      </c>
       <c r="I101" t="s">
-        <v>17</v>
+        <v>223</v>
       </c>
       <c r="J101" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="6">
-        <v>107</v>
-      </c>
-      <c r="B102" t="s">
-        <v>12</v>
-      </c>
-      <c r="C102" t="s">
-        <v>13</v>
-      </c>
-      <c r="D102" t="s">
-        <v>14</v>
-      </c>
-      <c r="E102" t="s">
-        <v>222</v>
-      </c>
-      <c r="F102" t="s">
-        <v>292</v>
-      </c>
-      <c r="G102" t="s">
-        <v>304</v>
-      </c>
-      <c r="H102" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="I102" t="s">
-        <v>17</v>
-      </c>
-      <c r="J102" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="103" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="6">
-        <v>108</v>
-      </c>
-      <c r="B103" t="s">
-        <v>12</v>
-      </c>
-      <c r="C103" t="s">
-        <v>13</v>
-      </c>
-      <c r="D103" t="s">
-        <v>14</v>
-      </c>
-      <c r="E103" t="s">
-        <v>293</v>
-      </c>
-      <c r="F103" t="s">
-        <v>294</v>
-      </c>
-      <c r="G103" t="s">
-        <v>305</v>
-      </c>
-      <c r="H103" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="I103" t="s">
-        <v>17</v>
-      </c>
-      <c r="J103" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A104" s="6"/>
-      <c r="B104" t="s">
-        <v>12</v>
-      </c>
-      <c r="C104" t="s">
-        <v>13</v>
-      </c>
-      <c r="D104" t="s">
-        <v>14</v>
-      </c>
-      <c r="E104" t="s">
-        <v>295</v>
-      </c>
-      <c r="F104" t="s">
-        <v>297</v>
-      </c>
-      <c r="G104" t="s">
-        <v>216</v>
-      </c>
-      <c r="H104" t="s">
-        <v>217</v>
-      </c>
-      <c r="I104" t="s">
-        <v>173</v>
-      </c>
-      <c r="J104" t="s">
-        <v>18</v>
-      </c>
-      <c r="K104" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B105" t="s">
-        <v>12</v>
-      </c>
-      <c r="C105" t="s">
-        <v>13</v>
-      </c>
-      <c r="D105" t="s">
-        <v>14</v>
-      </c>
-      <c r="E105" t="s">
-        <v>296</v>
-      </c>
-      <c r="F105" t="s">
-        <v>298</v>
-      </c>
-      <c r="G105" t="s">
-        <v>216</v>
-      </c>
-      <c r="H105" t="s">
-        <v>218</v>
-      </c>
-      <c r="I105" t="s">
-        <v>173</v>
-      </c>
-      <c r="J105" t="s">
-        <v>18</v>
-      </c>
-      <c r="K105" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="113" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D113" s="3"/>
+        <v>19</v>
+      </c>
+      <c r="K101" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D109" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <hyperlinks>
-    <hyperlink ref="H95" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="H98" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="H94" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="H97" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="H99" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="H102" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="H96" r:id="rId7" xr:uid="{4B142583-8289-44FC-963D-9CAE8AEEBE6A}"/>
-    <hyperlink ref="H100" r:id="rId8" xr:uid="{2280AC95-22DA-4E84-BBBD-00D8F75A29CC}"/>
-    <hyperlink ref="H101" r:id="rId9" xr:uid="{6DFAEA14-17C6-4A2C-B194-5C3B05C6D1D0}"/>
-    <hyperlink ref="H103" r:id="rId10" xr:uid="{7E6CB08B-D838-4BF8-8B1E-DF4D38C3237F}"/>
+    <hyperlink ref="H95" r:id="rId1"/>
+    <hyperlink ref="H97" r:id="rId2"/>
+    <hyperlink ref="H94" r:id="rId3"/>
+    <hyperlink ref="H96" r:id="rId4"/>
+    <hyperlink ref="H98" r:id="rId5"/>
+    <hyperlink ref="H99" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId11"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
   <ignoredErrors>
-    <ignoredError sqref="G104:I104 A1:K1 B95:F95 J95:K95 B94:F94 J94:K94 A4:F4 A2:D2 F2 A3:D3 F3 A67:F67 A5:D5 F5 A6:D6 F6 A7:D7 F7 A8:D8 F8 A9:D9 F9 A10:D10 F10 A11:D11 F11 A12:D12 F12 A13:D13 F13 A14:D14 F14 A15:D15 F15 A16:D16 F16 A17:D17 F17 A18:D18 F18 A19:D19 F19 A20:D20 F20 A21:D21 F21 A22:D22 F22 A23:D23 F23 A24:D24 F24 A25:D25 F25 A26:D26 F26 A27:D27 F27 A28:D28 F28 A29:D29 F29 A30:D30 F30 A31:D31 F31 A32:D32 F32 A33:D33 F33 A34:D34 F34 A35:D35 F35 A36:D36 F36 A37:D37 F37 A38:D38 F38 A39:D39 F39 A40:D40 F40 A41:D41 F41 A42:D42 F42 A43:D43 F43 A44:D44 F44 A45:D45 F45 A46:D46 F46 A47:D47 F47 A48:D48 F48 A49:D49 F49 A50:D50 F50 A51:D51 F51 A52:D52 F52 A53:D53 F53 A54:D54 F54 A55:D55 F55 A56:D56 F56 A57:D57 F57 A58:D58 F58 A59:D59 F59 A60:D60 F60 B105:D105 G105:I105 A61:D61 F61 A62:D62 F62 B92:F92 B68:F68 B69:F69 B71:F71 B70:D70 F70 B72:F72 B73:F73 B75:F75 B79:F79 B80:F80 B85:F85 B86:F86 B87:F87 B77:F78 B76:E76 H76:K76 B93:E93 H93 J88:K92 J79:K79 J80:K80 J81:K85 J86:K86 J87:K87 J93:K93 K104 K105 J73:K73 B74:F74 J74:K74 H2:K2 H4:K4 H3:K3 A63:F66 H63:K66 H5:K5 H6:K6 H7:K7 H8:K8 H9:K9 H10:K10 H11:K11 H12:K12 H13:K13 H14:K14 H15:K15 H16:K16 H17:K17 H18:K18 H19:K19 H20:K20 H21:K21 H22:K22 H23:K23 H24:K24 H25:K25 H26:K26 H27:K27 H28:K28 H29:K29 H30:K30 H31:K31 H32:K32 H33:K33 H34:K34 H35:K35 H36:K36 H37:K37 H38:K38 H39:K39 H40:K40 H41:K41 H42:K42 H43:K43 H44:K44 H45:K45 H46:K46 H47:K47 H48:K48 H49:K49 H50:K50 H51:K51 H52:K52 H53:K53 H54:K54 H55:K55 H56:K56 H57:K57 H58:K58 H59:K59 H60:K60 H61:K61 H62:K62 H67:K67 H68:K68 H69:K69 H71:K71 H70:K70 H72:K72 H73 H75:K75 H77:K78 H74 H79 H80 B81:F81 H81 B82:F83 H82:H83 B84:F84 H84 H85 B88:F89 H88:H89 H86 H87 B90:F90 H90 B91:F91 H91 H92" numberStoredAsText="1"/>
+    <ignoredError sqref="B100:K101 A1:K1 A95:F95 I95:K95 A94:G94 I94:K94 A4:K4 A2:D2 F2:K2 A3:D3 F3:K3 A21:K93 A5:D5 F5:K5 A6:D6 F6:K6 A7:D7 F7:K7 A8:D8 F8:K8 A9:D9 F9:K9 A10:D10 F10:K10 A11:D11 F11:K11 A12:D12 F12:K12 A13:D13 F13:K13 A14:D14 F14:K14 A15:D15 F15:K15 A16:D16 F16:K16 A17:D17 F17:K17 A18:D18 F18:K18 A19:D19 F19:K19 A20:D20 F20:K20" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/open_data_list/0099.xlsx
+++ b/data/open_data_list/0099.xlsx
@@ -9,17 +9,30 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="20" yWindow="200" windowWidth="19180" windowHeight="9880"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1106" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1215" uniqueCount="368">
   <si>
     <t>#property</t>
   </si>
@@ -910,41 +923,6 @@
   </si>
   <si>
     <t>98</t>
-  </si>
-  <si>
-    <t>美容所新規開設一覧</t>
-    <rPh sb="0" eb="2">
-      <t>ビヨウ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ショ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>シンキ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>カイセツ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>イチラン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>クリーニング所新規開設一覧</t>
-    <rPh sb="6" eb="7">
-      <t>ショ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>シンキ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>カイセツ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>イチラン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>xlsx,text,RDF,データモデル定義</t>
@@ -955,25 +933,6 @@
   </si>
   <si>
     <t>100</t>
-  </si>
-  <si>
-    <t>旅館業新規開設一覧</t>
-    <rPh sb="0" eb="2">
-      <t>リョカン</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ギョウ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>シンキ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>カイセツ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>イチラン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>農村公園</t>
@@ -1082,6 +1041,322 @@
   <si>
     <t>児童館など</t>
     <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>理容所開設一覧</t>
+    <rPh sb="0" eb="2">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ショ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カイセツ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>美容所開設一覧</t>
+    <rPh sb="0" eb="2">
+      <t>ビヨウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ショ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カイセツ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://opendata.smartcity-takamatsu.jp/ckan/dataset/new_barber_shops</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>クリーニング所開設一覧</t>
+    <rPh sb="6" eb="7">
+      <t>ショ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カイセツ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>旅館業開設一覧</t>
+    <rPh sb="0" eb="2">
+      <t>リョカン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カイセツ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>公衆浴場開設一覧</t>
+    <rPh sb="0" eb="2">
+      <t>コウシュウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヨクジョウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カイセツ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>https://opendata.smartcity-takamatsu.jp/ckan/dataset/new_public_baths</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>興行場開設一覧</t>
+    <rPh sb="0" eb="3">
+      <t>コウギョウジョウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カイセツ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>https://opendata.smartcity-takamatsu.jp/ckan/dataset/new_permanent_exhibition_hall</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>食品等営業許可施設一覧</t>
+    <rPh sb="0" eb="2">
+      <t>ショクヒン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ナド</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>エイギョウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>キョカ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シセツ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>有</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>https://opendata.smartcity-takamatsu.jp/ckan/dataset/licensed_food_business_facility_list</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>常設土のう作製場所</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウセツ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ド</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>バショ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>防災施設</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>https://opendata.smartcity-takamatsu.jp/ckan/dataset/sandbag_creation_location</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>高松市パークアンドライド駐車場</t>
+    <rPh sb="0" eb="3">
+      <t>タカマツシ</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>チュウシャジョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>くらし</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>https://opendata.smartcity-takamatsu.jp/ckan/dataset/takamatsu_park_and_ride</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>交流センター</t>
+    <rPh sb="0" eb="2">
+      <t>コウリュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>https://opendata.smartcity-takamatsu.jp/ckan/dataset/exchange_center</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Well-Being指標（アンケートデータ）</t>
+    <rPh sb="10" eb="12">
+      <t>シヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>無</t>
+    <rPh sb="0" eb="1">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>https://opendata.smartcity-takamatsu.jp/ckan/dataset/well-being-results</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>柔道整復師施術所一覧</t>
+    <rPh sb="0" eb="2">
+      <t>ジュウドウ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>セイフクシ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>セジュツ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ショ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>https://opendata.smartcity-takamatsu.jp/ckan/dataset/judo_therapy</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>あはき施術所一覧</t>
+    <rPh sb="3" eb="5">
+      <t>セジュツ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ショ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>https://opendata.smartcity-takamatsu.jp/ckan/dataset/finger_pressure_acupuncture_and_moxacauterization</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>助産所一覧</t>
+    <rPh sb="0" eb="2">
+      <t>ジョサン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ジョ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>https://opendata.smartcity-takamatsu.jp/ckan/dataset/midwifery_center</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>歯科技工所一覧</t>
+    <rPh sb="0" eb="2">
+      <t>シカ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ギコウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ショ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>https://opendata.smartcity-takamatsu.jp/ckan/dataset/dental_laboratories</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>107</t>
+  </si>
+  <si>
+    <t>108</t>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>112</t>
   </si>
 </sst>
 </file>
@@ -1142,7 +1417,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -1153,6 +1428,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -1493,10 +1774,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K109"/>
+  <dimension ref="A1:K121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="C116" sqref="C116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -1557,7 +1838,7 @@
         <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="F2" t="s">
         <v>15</v>
@@ -1592,7 +1873,7 @@
         <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F3" t="s">
         <v>15</v>
@@ -1662,7 +1943,7 @@
         <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="F5" t="s">
         <v>15</v>
@@ -1697,7 +1978,7 @@
         <v>14</v>
       </c>
       <c r="E6" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="F6" t="s">
         <v>15</v>
@@ -1732,7 +2013,7 @@
         <v>14</v>
       </c>
       <c r="E7" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="F7" t="s">
         <v>15</v>
@@ -1767,7 +2048,7 @@
         <v>14</v>
       </c>
       <c r="E8" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="F8" t="s">
         <v>15</v>
@@ -1802,7 +2083,7 @@
         <v>14</v>
       </c>
       <c r="E9" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="F9" t="s">
         <v>35</v>
@@ -1837,7 +2118,7 @@
         <v>14</v>
       </c>
       <c r="E10" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="F10" t="s">
         <v>35</v>
@@ -1872,7 +2153,7 @@
         <v>14</v>
       </c>
       <c r="E11" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="F11" t="s">
         <v>35</v>
@@ -1907,7 +2188,7 @@
         <v>14</v>
       </c>
       <c r="E12" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="F12" t="s">
         <v>35</v>
@@ -1942,7 +2223,7 @@
         <v>14</v>
       </c>
       <c r="E13" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="F13" t="s">
         <v>44</v>
@@ -1977,7 +2258,7 @@
         <v>14</v>
       </c>
       <c r="E14" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="F14" t="s">
         <v>44</v>
@@ -2012,7 +2293,7 @@
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="F15" t="s">
         <v>44</v>
@@ -2047,7 +2328,7 @@
         <v>14</v>
       </c>
       <c r="E16" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="F16" t="s">
         <v>44</v>
@@ -2082,7 +2363,7 @@
         <v>14</v>
       </c>
       <c r="E17" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="F17" t="s">
         <v>44</v>
@@ -2117,7 +2398,7 @@
         <v>14</v>
       </c>
       <c r="E18" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="F18" t="s">
         <v>44</v>
@@ -2152,7 +2433,7 @@
         <v>14</v>
       </c>
       <c r="E19" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="F19" t="s">
         <v>44</v>
@@ -2187,7 +2468,7 @@
         <v>14</v>
       </c>
       <c r="E20" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="F20" t="s">
         <v>44</v>
@@ -4786,7 +5067,7 @@
         <v>16</v>
       </c>
       <c r="H94" s="4" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="I94" t="s">
         <v>18</v>
@@ -4818,10 +5099,10 @@
         <v>15</v>
       </c>
       <c r="G95" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="H95" s="4" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="I95" t="s">
         <v>223</v>
@@ -4837,8 +5118,8 @@
       <c r="A96" t="s">
         <v>288</v>
       </c>
-      <c r="B96" t="s">
-        <v>12</v>
+      <c r="B96" s="6">
+        <v>37201</v>
       </c>
       <c r="C96" t="s">
         <v>13</v>
@@ -4847,16 +5128,16 @@
         <v>14</v>
       </c>
       <c r="E96" t="s">
-        <v>297</v>
+        <v>325</v>
       </c>
       <c r="F96" t="s">
         <v>15</v>
       </c>
       <c r="G96" t="s">
-        <v>299</v>
-      </c>
-      <c r="H96" s="5" t="s">
-        <v>307</v>
+        <v>297</v>
+      </c>
+      <c r="H96" s="4" t="s">
+        <v>327</v>
       </c>
       <c r="I96" t="s">
         <v>223</v>
@@ -4879,16 +5160,16 @@
         <v>14</v>
       </c>
       <c r="E97" t="s">
-        <v>298</v>
+        <v>326</v>
       </c>
       <c r="F97" t="s">
         <v>15</v>
       </c>
       <c r="G97" t="s">
-        <v>16</v>
-      </c>
-      <c r="H97" s="1" t="s">
-        <v>305</v>
+        <v>297</v>
+      </c>
+      <c r="H97" s="5" t="s">
+        <v>304</v>
       </c>
       <c r="I97" t="s">
         <v>223</v>
@@ -4911,7 +5192,7 @@
         <v>14</v>
       </c>
       <c r="E98" t="s">
-        <v>302</v>
+        <v>328</v>
       </c>
       <c r="F98" t="s">
         <v>15</v>
@@ -4920,7 +5201,7 @@
         <v>16</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="I98" t="s">
         <v>223</v>
@@ -4929,7 +5210,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="99" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>296</v>
       </c>
@@ -4943,7 +5224,7 @@
         <v>14</v>
       </c>
       <c r="E99" t="s">
-        <v>303</v>
+        <v>329</v>
       </c>
       <c r="F99" t="s">
         <v>15</v>
@@ -4951,8 +5232,11 @@
       <c r="G99" t="s">
         <v>16</v>
       </c>
-      <c r="H99" s="2" t="s">
-        <v>309</v>
+      <c r="H99" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="I99" t="s">
+        <v>223</v>
       </c>
       <c r="J99" t="s">
         <v>19</v>
@@ -4960,10 +5244,10 @@
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>300</v>
-      </c>
-      <c r="B100" t="s">
-        <v>12</v>
+        <v>298</v>
+      </c>
+      <c r="B100" s="7">
+        <v>37201</v>
       </c>
       <c r="C100" t="s">
         <v>13</v>
@@ -4972,16 +5256,16 @@
         <v>14</v>
       </c>
       <c r="E100" t="s">
-        <v>289</v>
+        <v>330</v>
       </c>
       <c r="F100" t="s">
-        <v>87</v>
+        <v>15</v>
       </c>
       <c r="G100" t="s">
-        <v>290</v>
-      </c>
-      <c r="H100" t="s">
-        <v>291</v>
+        <v>16</v>
+      </c>
+      <c r="H100" s="1" t="s">
+        <v>331</v>
       </c>
       <c r="I100" t="s">
         <v>223</v>
@@ -4989,16 +5273,13 @@
       <c r="J100" t="s">
         <v>19</v>
       </c>
-      <c r="K100" t="s">
-        <v>20</v>
-      </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>301</v>
-      </c>
-      <c r="B101" t="s">
-        <v>12</v>
+        <v>299</v>
+      </c>
+      <c r="B101" s="7">
+        <v>37201</v>
       </c>
       <c r="C101" t="s">
         <v>13</v>
@@ -5007,16 +5288,16 @@
         <v>14</v>
       </c>
       <c r="E101" t="s">
-        <v>293</v>
+        <v>332</v>
       </c>
       <c r="F101" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="G101" t="s">
-        <v>290</v>
-      </c>
-      <c r="H101" t="s">
-        <v>294</v>
+        <v>16</v>
+      </c>
+      <c r="H101" s="1" t="s">
+        <v>333</v>
       </c>
       <c r="I101" t="s">
         <v>223</v>
@@ -5024,27 +5305,426 @@
       <c r="J101" t="s">
         <v>19</v>
       </c>
-      <c r="K101" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="D109" s="3"/>
+    </row>
+    <row r="102" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>356</v>
+      </c>
+      <c r="B102" t="s">
+        <v>12</v>
+      </c>
+      <c r="C102" t="s">
+        <v>13</v>
+      </c>
+      <c r="D102" t="s">
+        <v>14</v>
+      </c>
+      <c r="E102" t="s">
+        <v>300</v>
+      </c>
+      <c r="F102" t="s">
+        <v>15</v>
+      </c>
+      <c r="G102" t="s">
+        <v>16</v>
+      </c>
+      <c r="H102" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="I102" t="s">
+        <v>335</v>
+      </c>
+      <c r="J102" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>357</v>
+      </c>
+      <c r="B103" s="7">
+        <v>37201</v>
+      </c>
+      <c r="C103" t="s">
+        <v>13</v>
+      </c>
+      <c r="D103" t="s">
+        <v>14</v>
+      </c>
+      <c r="E103" t="s">
+        <v>334</v>
+      </c>
+      <c r="F103" t="s">
+        <v>15</v>
+      </c>
+      <c r="G103" t="s">
+        <v>16</v>
+      </c>
+      <c r="H103" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="I103" t="s">
+        <v>223</v>
+      </c>
+      <c r="J103" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>358</v>
+      </c>
+      <c r="B104" s="7">
+        <v>37201</v>
+      </c>
+      <c r="C104" t="s">
+        <v>13</v>
+      </c>
+      <c r="D104" t="s">
+        <v>14</v>
+      </c>
+      <c r="E104" t="s">
+        <v>337</v>
+      </c>
+      <c r="F104" t="s">
+        <v>338</v>
+      </c>
+      <c r="G104" t="s">
+        <v>16</v>
+      </c>
+      <c r="H104" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="I104" t="s">
+        <v>335</v>
+      </c>
+      <c r="J104" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>359</v>
+      </c>
+      <c r="B105" s="7">
+        <v>37201</v>
+      </c>
+      <c r="C105" t="s">
+        <v>13</v>
+      </c>
+      <c r="D105" t="s">
+        <v>14</v>
+      </c>
+      <c r="E105" t="s">
+        <v>340</v>
+      </c>
+      <c r="F105" t="s">
+        <v>341</v>
+      </c>
+      <c r="G105" t="s">
+        <v>16</v>
+      </c>
+      <c r="H105" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="I105" t="s">
+        <v>335</v>
+      </c>
+      <c r="J105" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>360</v>
+      </c>
+      <c r="B106" s="7">
+        <v>37201</v>
+      </c>
+      <c r="C106" t="s">
+        <v>13</v>
+      </c>
+      <c r="D106" t="s">
+        <v>14</v>
+      </c>
+      <c r="E106" t="s">
+        <v>343</v>
+      </c>
+      <c r="F106" t="s">
+        <v>341</v>
+      </c>
+      <c r="G106" t="s">
+        <v>16</v>
+      </c>
+      <c r="H106" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="I106" t="s">
+        <v>335</v>
+      </c>
+      <c r="J106" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>361</v>
+      </c>
+      <c r="B107" s="7">
+        <v>37201</v>
+      </c>
+      <c r="C107" t="s">
+        <v>13</v>
+      </c>
+      <c r="D107" t="s">
+        <v>14</v>
+      </c>
+      <c r="E107" t="s">
+        <v>345</v>
+      </c>
+      <c r="F107" t="s">
+        <v>341</v>
+      </c>
+      <c r="G107" t="s">
+        <v>16</v>
+      </c>
+      <c r="H107" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="I107" t="s">
+        <v>346</v>
+      </c>
+      <c r="J107" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>362</v>
+      </c>
+      <c r="B108" s="7">
+        <v>37201</v>
+      </c>
+      <c r="C108" t="s">
+        <v>13</v>
+      </c>
+      <c r="D108" t="s">
+        <v>14</v>
+      </c>
+      <c r="E108" t="s">
+        <v>348</v>
+      </c>
+      <c r="F108" t="s">
+        <v>341</v>
+      </c>
+      <c r="G108" t="s">
+        <v>16</v>
+      </c>
+      <c r="H108" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="I108" t="s">
+        <v>335</v>
+      </c>
+      <c r="J108" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>363</v>
+      </c>
+      <c r="B109" s="7">
+        <v>37201</v>
+      </c>
+      <c r="C109" t="s">
+        <v>13</v>
+      </c>
+      <c r="D109" t="s">
+        <v>14</v>
+      </c>
+      <c r="E109" t="s">
+        <v>350</v>
+      </c>
+      <c r="F109" t="s">
+        <v>341</v>
+      </c>
+      <c r="G109" t="s">
+        <v>16</v>
+      </c>
+      <c r="H109" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="I109" t="s">
+        <v>335</v>
+      </c>
+      <c r="J109" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>364</v>
+      </c>
+      <c r="B110" s="7">
+        <v>37201</v>
+      </c>
+      <c r="C110" t="s">
+        <v>13</v>
+      </c>
+      <c r="D110" t="s">
+        <v>14</v>
+      </c>
+      <c r="E110" t="s">
+        <v>352</v>
+      </c>
+      <c r="F110" t="s">
+        <v>341</v>
+      </c>
+      <c r="G110" t="s">
+        <v>16</v>
+      </c>
+      <c r="H110" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="I110" t="s">
+        <v>335</v>
+      </c>
+      <c r="J110" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>365</v>
+      </c>
+      <c r="B111" s="7">
+        <v>37201</v>
+      </c>
+      <c r="C111" t="s">
+        <v>13</v>
+      </c>
+      <c r="D111" t="s">
+        <v>14</v>
+      </c>
+      <c r="E111" t="s">
+        <v>354</v>
+      </c>
+      <c r="F111" t="s">
+        <v>341</v>
+      </c>
+      <c r="G111" t="s">
+        <v>16</v>
+      </c>
+      <c r="H111" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="I111" t="s">
+        <v>335</v>
+      </c>
+      <c r="J111" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>366</v>
+      </c>
+      <c r="B112" t="s">
+        <v>12</v>
+      </c>
+      <c r="C112" t="s">
+        <v>13</v>
+      </c>
+      <c r="D112" t="s">
+        <v>14</v>
+      </c>
+      <c r="E112" t="s">
+        <v>289</v>
+      </c>
+      <c r="F112" t="s">
+        <v>87</v>
+      </c>
+      <c r="G112" t="s">
+        <v>290</v>
+      </c>
+      <c r="H112" t="s">
+        <v>291</v>
+      </c>
+      <c r="I112" t="s">
+        <v>223</v>
+      </c>
+      <c r="J112" t="s">
+        <v>19</v>
+      </c>
+      <c r="K112" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>367</v>
+      </c>
+      <c r="B113" t="s">
+        <v>12</v>
+      </c>
+      <c r="C113" t="s">
+        <v>13</v>
+      </c>
+      <c r="D113" t="s">
+        <v>14</v>
+      </c>
+      <c r="E113" t="s">
+        <v>293</v>
+      </c>
+      <c r="F113" t="s">
+        <v>44</v>
+      </c>
+      <c r="G113" t="s">
+        <v>290</v>
+      </c>
+      <c r="H113" t="s">
+        <v>294</v>
+      </c>
+      <c r="I113" t="s">
+        <v>223</v>
+      </c>
+      <c r="J113" t="s">
+        <v>19</v>
+      </c>
+      <c r="K113" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D121" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <hyperlinks>
-    <hyperlink ref="H95" r:id="rId1"/>
-    <hyperlink ref="H97" r:id="rId2"/>
-    <hyperlink ref="H94" r:id="rId3"/>
-    <hyperlink ref="H96" r:id="rId4"/>
-    <hyperlink ref="H98" r:id="rId5"/>
-    <hyperlink ref="H99" r:id="rId6"/>
+    <hyperlink ref="H95" display="https://opendata.smartcity-takamatsu.jp/ckan/dataset/open_data_list"/>
+    <hyperlink ref="H98" display="https://opendata.smartcity-takamatsu.jp/ckan/dataset/new_cleanings"/>
+    <hyperlink ref="H94" display="https://opendata.smartcity-takamatsu.jp/ckan/dataset/list_of_designated_collection_bag_dealers"/>
+    <hyperlink ref="H97" display="https://opendata.smartcity-takamatsu.jp/ckan/dataset/new_beauty_salons"/>
+    <hyperlink ref="H99" display="https://opendata.smartcity-takamatsu.jp/ckan/dataset/new_hostels_x000a_"/>
+    <hyperlink ref="H102" display="https://opendata.smartcity-takamatsu.jp/ckan/dataset/rural_park_x000a_"/>
+    <hyperlink ref="H96" r:id="rId1"/>
+    <hyperlink ref="H100" r:id="rId2"/>
+    <hyperlink ref="H101" r:id="rId3"/>
+    <hyperlink ref="H103" r:id="rId4"/>
+    <hyperlink ref="H104" r:id="rId5"/>
+    <hyperlink ref="H105" r:id="rId6"/>
+    <hyperlink ref="H106" r:id="rId7"/>
+    <hyperlink ref="H107" r:id="rId8"/>
+    <hyperlink ref="H108" r:id="rId9"/>
+    <hyperlink ref="H109" r:id="rId10"/>
+    <hyperlink ref="H110" r:id="rId11"/>
+    <hyperlink ref="H111" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <ignoredErrors>
-    <ignoredError sqref="B100:K101 A1:K1 A95:F95 I95:K95 A94:G94 I94:K94 A4:K4 A2:D2 F2:K2 A3:D3 F3:K3 A21:K93 A5:D5 F5:K5 A6:D6 F6:K6 A7:D7 F7:K7 A8:D8 F8:K8 A9:D9 F9:K9 A10:D10 F10:K10 A11:D11 F11:K11 A12:D12 F12:K12 A13:D13 F13:K13 A14:D14 F14:K14 A15:D15 F15:K15 A16:D16 F16:K16 A17:D17 F17:K17 A18:D18 F18:K18 A19:D19 F19:K19 A20:D20 F20:K20" numberStoredAsText="1"/>
+    <ignoredError sqref="B112:K113 A1:K1 A95:F95 I95:K95 A94:G94 I94:K94 A4:K4 A2:D2 F2:K2 A3:D3 F3:K3 A21:K93 A5:D5 F5:K5 A6:D6 F6:K6 A7:D7 F7:K7 A8:D8 F8:K8 A9:D9 F9:K9 A10:D10 F10:K10 A11:D11 F11:K11 A12:D12 F12:K12 A13:D13 F13:K13 A14:D14 F14:K14 A15:D15 F15:K15 A16:D16 F16:K16 A17:D17 F17:K17 A18:D18 F18:K18 A19:D19 F19:K19 A20:D20 F20:K20" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>